--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D331B-8077-411A-8186-3AE34555F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C6FF1-AE2A-41ED-8DBD-E76CF792AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21840" yWindow="5685" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21840" yWindow="5685" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8446,7 +8446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>8.7213114754098347E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>5.3837127792508603E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13058,55 +13058,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>8.1394444228878593E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8920733747547448</v>
+        <v>1.7495031233054217</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>4.0658327866561814</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084878882857636</v>
+        <v>5.3900272603464137</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>6.0073423456804758</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4144447198559198</v>
+        <v>6.7625895422389091</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9150230329531022</v>
+        <v>5.8877692942815134</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>4.5674650713856586</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3005694671499501</v>
+        <v>2.42772967201324</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27060330655533704</v>
+        <v>0.53573987964490966</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>3.5864907336887594E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.217457247694321E-4</v>
+        <v>6.3123446954764767E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-5</v>
+        <v>1.6483953552162383E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13135,11 +13135,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.769467213114754E-5</v>
+        <v>9.3572404371584697E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>5.0700984425954706E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13159,55 +13159,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>8.0546585434827789E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88341246820372787</v>
+        <v>1.7668249364074557</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0329163933280907</v>
+        <v>4.2352424861001889</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>5.6737129056278048</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>6.3867534411971372</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1823950787006625</v>
+        <v>6.895189337184771</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9727462613284112</v>
+        <v>6.0032157510321316</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>4.4304411192440885</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>2.5515934307894259</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.56307354697373158</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-3</v>
+        <v>3.5864907336887594E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>5.883350395783901E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-5</v>
+        <v>1.5514309225564594E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2030396174863383E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3720627228673311E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,55 +13260,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0772540454245057E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4287148742753385</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0164581966640454</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3616910973506728</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6124971559458121</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7403723086644252</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4142190951950695</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1190289424894864</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63170516975854729</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12983491981190415</v>
+        <v>0.27607004002110141</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4708375989459752E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1209883880405957E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2936591387034835E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13361,55 +13361,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460366873773724</v>
+        <v>0.90939518785677864</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1117511526012995</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5650707690062293</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6243474880867967</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>2.9150230329531022</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1418662678464147</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65028473357497507</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13666833664410963</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1420352035203657E-4</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4861588239349958E-4</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.201792081923745E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13438,11 +13438,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.384733606557377E-5</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2936591387034835E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,55 +13462,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.90073428130576172</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441147472388671</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.657497436823262</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0961916171325579</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60693241800330999</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.142135070109874</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5267059109757262E-4</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6087286238471605E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13708,11 +13708,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-5</v>
+        <v>9.4480874316939882E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-5</v>
+        <v>5.1746365548139341E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,55 +13732,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-2</v>
+        <v>8.1394444228878593E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90939518785677864</v>
+        <v>1.6802158708972861</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>4.4046521855441965</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>5.6737129056278048</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>6.3867534411971372</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>6.8288894397118396</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>5.5991531524049689</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>4.7044890235272288</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2262512118842388</v>
+        <v>2.42772967201324</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27333667328821926</v>
+        <v>0.56307354697373158</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-3</v>
+        <v>3.6216524075484528E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>6.4349144953886419E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>1.6645560939928682E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13809,11 +13809,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081965E-5</v>
+        <v>9.2663934426229498E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>5.4882508914693245E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,55 +13833,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>8.3938020611031061E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8920733747547448</v>
+        <v>1.8014685626115234</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0540926057585915</v>
+        <v>4.1081852115171831</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>5.9573985509091951</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>6.0073423456804758</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3812947711194545</v>
+        <v>6.895189337184771</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>5.8877692942815134</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>4.7958383249549419</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>2.4525024237684776</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.55760681350796726</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>3.6216524075484528E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162799E-4</v>
+        <v>6.2510597955203957E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>1.6160738776629788E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13910,11 +13910,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3620218579234971E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2805918746761756E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,55 +13934,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0772540454245057E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1117511526012995</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3475068150866034</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5808795646527569</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7072223599279599</v>
+        <v>3.4807446173288503</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13666833664410963</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7025142802741955E-4</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5014800489240166E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2421939288653197E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14011,11 +14011,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2030396174863383E-5</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3459281948127151E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,55 +14035,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>4.1121151511464706E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460366873773724</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5018355864201189</v>
+        <v>3.0036711728402379</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6409224624550296</v>
+        <v>3.3812947711194545</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4575115164765511</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1304476051679504</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64409154563616577</v>
+        <v>1.21386483600662</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13530165327766852</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5474437238910784E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0805865410990211E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3459281948127151E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,55 +14136,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3475068150866034</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6077725137185641</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076102798110221</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63789835769735648</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12983491981190415</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7904184649234291E-4</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4555163739569547E-4</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.201792081923745E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081965E-5</v>
+        <v>8.993852459016393E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>5.2791746670323976E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,55 +14406,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>8.8177314581285166E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>1.8014685626115234</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>4.0658327866561814</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6950136301732068</v>
+        <v>5.6169757765715271</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1617591293055138</v>
+        <v>6.197047893438806</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>6.2984902599283954</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>5.9454925226568225</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>4.7501636742410849</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>2.4525024237684776</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.54667334657643851</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>3.6216524075484528E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-4</v>
+        <v>6.2510597955203957E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>1.5837524001097194E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14483,11 +14483,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114749E-5</v>
+        <v>9.2663934426229498E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>4.9655603303770072E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,55 +14507,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>8.902517337533597E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88341246820372787</v>
+        <v>1.714859497101354</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0329163933280907</v>
+        <v>4.1505376363781847</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084878882857636</v>
+        <v>5.5602386475152485</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0036711728402379</v>
+        <v>6.3235182586110277</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3812947711194545</v>
+        <v>6.364790157401325</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>5.9454925226568225</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>4.6588143728133717</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>2.3534114167475289</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.53027314617914534</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>3.4810057121096782E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139094E-4</v>
+        <v>6.0672050956521472E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>1.680716832769498E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3393101092896174E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3197936667580994E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,55 +14608,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4113930611733046</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058700904487947</v>
+        <v>2.2023260927720982</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6124971559458121</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7072223599279599</v>
+        <v>3.4807446173288503</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3709266739135875</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1418662678464147</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6193187938809287</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0805865410990211E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3165983606557375E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,55 +14709,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2256293343833992E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0905749401707985</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3475068150866034</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6599235428853949</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7403723086644252</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5152347448518602</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989595812387355</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6193187938809287</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3508975416772568E-4</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4708375989459752E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14786,11 +14786,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1803278688524587E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2675246106488677E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.119646985127047E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41572351444881306</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4326125086710206</v>
+        <v>2.8935935818701801</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5492619733597015</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7403723086644252</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286499022888965</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1190289424894864</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6131256059421194</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13940170337699181</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4388017263264926E-4</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5780861738691192E-4</v>
+        <v>3.217457247694321E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -16548,8 +16548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16573,7 +16573,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16584,7 +16584,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -16595,7 +16595,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -16606,7 +16606,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -26009,11 +26009,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>1.1076065573770492E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>6.5200420590655564E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26033,55 +26033,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-2</v>
+        <v>0.10042353391625182</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>2.2514200942718796</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7506698905967086</v>
+        <v>5.6631438924049879</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>7.1944557320856486</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1972850768389467</v>
+        <v>7.7549838562548157</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>8.253228859716744</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>7.2256432179865202</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>6.0279700633245827</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>3.1979917336013219</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.65963772083550376</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534251E-3</v>
+        <v>4.5219645362460561E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>7.5941897229587639E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>1.9750038858919265E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26110,11 +26110,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>1.1537568306010929E-4</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>6.7834781018560848E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26134,55 +26134,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>0.1025377135776466</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>2.1858447517202717</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7506698905967086</v>
+        <v>5.6092091886677977</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>7.4851408121699166</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>8.3146218665000085</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>8.0847956176817082</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>7.2256432179865202</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0139850316622914</v>
+        <v>5.5686961537379478</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6145200985171724</v>
+        <v>3.1358948067352772</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35064952528624149</v>
+        <v>0.70824260552864615</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838225E-3</v>
+        <v>4.4780619679329874E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>7.2182397366736756E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>1.8967859102130382E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26211,11 +26211,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7401724726775957E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7123342781384293E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26235,55 +26235,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5898700852085999E-2</v>
+        <v>5.232594661952069E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5737842473265713</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.280949213758271</v>
+        <v>2.831571946202494</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7622782980108787</v>
+        <v>3.5608922310322906</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0186942512415889</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.063307214929186</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8801418577413906</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3778217287599046</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.791735817542075</v>
+        <v>1.5679474033676386</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130491134061514E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9173449300539453E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1330546539270368E-5</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.855548155737705E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>3.4575980616256741E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26336,55 +26336,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6691518225109043E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53553196417146653</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7441104805056118</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9187588922692327</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.063307214929186</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8617090944302004</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7684494699673079</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17011709642599834</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7419647755325955E-5</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9132359972677593E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794047727896131E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26437,55 +26437,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52460274041286514</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7259426630003449</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0986425384194733</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.063307214929186</v>
+        <v>4.4213726034196847</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.435230967458234</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16664531894791673</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0536616395136441E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9173449300539453E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1330546539270368E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>1.130681693989071E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>6.9151961232513483E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218087E-2</v>
+        <v>0.10993734239252832</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>2.2951369893062852</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.696735186859518</v>
+        <v>5.3395356699818457</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>7.5578120821909849</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>7.5950872818990467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>8.0847956176817082</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6865526622380207</v>
+        <v>7.4468363777208015</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>5.6835146311346065</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4748020130685706</v>
+        <v>3.0737978798692316</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34370597033007827</v>
+        <v>0.70129905057248298</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838225E-3</v>
+        <v>4.4780619679329874E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.797094861479382E-4</v>
+        <v>7.7445697174727984E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624103E-5</v>
+        <v>1.8772314162933163E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>1.0960689890710383E-4</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>6.5200420590655564E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>0.10676607290043617</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>2.2077031992374745</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>5.6092091886677977</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>7.5578120821909849</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>8.1547252921442404</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3792642929109258</v>
+        <v>8.1690122386992279</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6865526622380207</v>
+        <v>7.2993742712312812</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.956575792963962</v>
+        <v>5.8557423472295946</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>2.9496040261371412</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32981886041775188</v>
+        <v>0.69435549561631982</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>4.3463542629937815E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>7.1430497394166584E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>1.9358948980524821E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0286116803278686E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,55 +26990,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>5.12688567888233E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54099657605076723</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2944328896925685</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8349495680319459</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9987071794471176</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0001447491660476</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16490943020887594</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6930785407332907E-5</v>
+        <v>9.7772469598610213E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27067,11 +27067,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>5.7687841530054644E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629400201152053E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,55 +27091,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6955790682783386E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54099657605076723</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9787201076526464</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1264696806923244</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7695452778742498</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16490943020887594</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9173449300539453E-4</v>
+        <v>3.6467148669653464E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>5.7687841530054644E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6135457620919813E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,55 +27192,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56831963544727071</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3079165656268663</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8894530205477462</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9187588922692327</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3921740384344869</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81502216511684189</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0865885657484454E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7857624348541646E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8886234799305107E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27438,11 +27438,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-5</v>
+        <v>1.1883695355191256E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-5</v>
+        <v>6.3883240376702929E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,55 +27462,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>0.10782316273113354</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>2.1202694091686638</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>5.4474050774562262</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>6.9764419220224472</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>8.3146218665000085</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>8.0847956176817082</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>7.741760590699843</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.956575792963962</v>
+        <v>5.4538776763412891</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>3.2600886604673676</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.66658127579166693</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>4.258549126367645E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>7.8197597147298156E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624103E-5</v>
+        <v>1.9358948980524821E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27539,11 +27539,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>1.2114446721311474E-4</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>6.6517600804608213E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,55 +27563,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>0.10782316273113354</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>2.2732785417890828</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>5.2316662625074652</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>7.4124695421488509</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1972850768389467</v>
+        <v>7.9948287177884705</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>8.3374454807342619</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>7.2256432179865202</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7843480768689739</v>
+        <v>5.5686961537379478</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>3.0117009530031869</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36453663519856788</v>
+        <v>0.68046838570399337</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-3</v>
+        <v>4.4341593996199196E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078906E-4</v>
+        <v>7.2182397366736756E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>1.9945583798116484E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27640,11 +27640,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9420799180327868E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,55 +27664,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5898700852085999E-2</v>
+        <v>5.232594661952069E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51913812853356456</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3079165656268663</v>
+        <v>2.6158331312537326</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>3.8375177845384654</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.042253059674807</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7695452778742498</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80726004925858619</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0646372815919113E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9375097147298162E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27741,11 +27741,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8843920765027322E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7123342781384293E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,55 +27765,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6162973309760345E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52460274041286514</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3079165656268663</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7441104805056118</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9587330358581752</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1896321464554629</v>
+        <v>4.0423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8432763311190103</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5069925158311457</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>1.5213747082181044</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9549399286824539E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>9.6794744902624103E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8267042349726775E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27866,55 +27866,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5105883479062955E-2</v>
+        <v>5.12688567888233E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.348367593429759</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.816781750526679</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9787201076526464</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1475238359467039</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9354401476749608</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3634694190853223</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76068735410905219</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.898547430739691E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB54EC-FCD6-4F5C-AB5F-F15DE64101F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD124588-9D1B-4AF0-A2D2-C89293010D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="6300" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="6480" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,35 +13510,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515531E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84010793544864304</v>
+        <v>0.88341246820372787</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0752688181890924</v>
+        <v>2.181149880341597</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098523946719403</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.3812947711194545</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13546,11 +13546,11 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.28153677348686579</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443797E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306394E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,31 +13583,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.6965561174555082</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8104020643184322</v>
+        <v>2.7558311504481714</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7621367891087827</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.3683232568249437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7818661811590637</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,15 +13619,15 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.4598634865802125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13635,15 +13635,15 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3862667239328719</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7753706908380624</v>
+        <v>1.7940588033731999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13651,27 +13651,27 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1402648176527186</v>
+        <v>2.0970271445688256</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.0144648997836154</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.1242800712080196</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1904550287263294</v>
+        <v>2.2789582622102214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3158133992588938</v>
+        <v>2.3385174521928045</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1311852364913588</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7233606557377044E-5</v>
+        <v>5.2327868852459003E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.167504800219438E-5</v>
+        <v>2.979336198226204E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13720,15 +13720,15 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5665569465767142</v>
+        <v>2.5411454916601133</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3361431885091495</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.642346516959952</v>
+        <v>3.9458753933732806</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13736,31 +13736,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4633937025185375</v>
+        <v>3.5326615765689078</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6856694619747672</v>
+        <v>2.7678838332597091</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5160924074205133</v>
+        <v>1.4566378032079441</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32472396786640445</v>
+        <v>0.33128404802532174</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0042154100025416E-3</v>
+        <v>2.1940884488448878E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6403230573912887E-4</v>
+        <v>3.4932392974966909E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9873365639572097E-5</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7233606557377044E-5</v>
+        <v>5.3963114754098352E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2302276675505162E-5</v>
+        <v>3.1047819328883605E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,19 +13813,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3415104025201582E-2</v>
+        <v>4.8836666537327156E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99773643467715134</v>
+        <v>1.0081295225383717</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5919684014933155</v>
+        <v>2.6427913113265178</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.370185465942916</v>
+        <v>3.3361431885091495</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,35 +13833,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0177737868595873</v>
+        <v>3.9779938483758288</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3248579544177956</v>
+        <v>3.4980276395437229</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8226934141163369</v>
+        <v>2.740479042831395</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4120468500485173</v>
+        <v>1.5012287563673712</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3280040079458631</v>
+        <v>0.33784412818423898</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1307974358974391E-3</v>
+        <v>2.1940884488448878E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7506358773122374E-4</v>
+        <v>3.530010237470341E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8903721312974287E-5</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7233606557377044E-5</v>
+        <v>5.287295081967212E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1380242919479624E-2</v>
+        <v>4.9854097090188142E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0289156982608123</v>
+        <v>0.98734334681593094</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.5665569465767142</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.370185465942916</v>
+        <v>3.4042277433766825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8320520647182823</v>
+        <v>3.6044054074082852</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>3.8586540329245542</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5326615765689078</v>
+        <v>3.4980276395437229</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7678838332597091</v>
+        <v>2.6034550906898248</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4566378032079441</v>
+        <v>1.5160924074205133</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33456408810478033</v>
+        <v>0.34440420834315622</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.215185453160704E-3</v>
+        <v>2.0464094186341741E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6403230573912887E-4</v>
+        <v>3.6770939973649382E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0084300996616988E-4</v>
+        <v>9.4055499679985356E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,15 +14184,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>0.90939518785677864</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14200,11 +14200,11 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,27 +14212,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28700350695263022</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,31 +14257,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>3.1804043572288254</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8104020643184322</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6527452331044743</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3920064893931934</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.7451266722691861</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14289,67 +14289,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.6632086249749547</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.400879103284042</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420890697712679</v>
+        <v>1.3918929283716039</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4736688522664827</v>
+        <v>1.4014301830377334</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3257307195545065</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3062897975521293</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940588033731999</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2931093463249828</v>
+        <v>2.1795890816554291</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>2.2190691637693529</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.5821937872653633</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6143442622950818E-5</v>
+        <v>5.6688524590163935E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.167504800219438E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0871527643049128E-2</v>
+        <v>4.8836666537327156E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,35 +14394,35 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.5919684014933155</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3021009110753825</v>
+        <v>3.2680586336416151</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6802876265116176</v>
+        <v>3.9079342838216151</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>3.8188740944407953</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4980276395437229</v>
+        <v>3.5672955135940931</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8226934141163369</v>
+        <v>2.6034550906898248</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5012287563673712</v>
+        <v>1.4417741521548018</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34112416826369762</v>
+        <v>0.33128404802532174</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14430,11 +14430,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4932392974966909E-4</v>
+        <v>3.6770939973649382E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3085855353387573E-5</v>
+        <v>9.599478833318095E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2327868852459003E-5</v>
+        <v>5.5598360655737695E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,19 +14487,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9345381813757652E-2</v>
+        <v>4.9854097090188142E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0393087861220327</v>
+        <v>1.0808811375669141</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.5411454916601133</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4042277433766825</v>
+        <v>3.3021009110753825</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,23 +14507,23 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>3.9382139098920708</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.359491891442981</v>
+        <v>3.5326615765689078</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.6856694619747672</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4417741521548018</v>
+        <v>1.5606833605799402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33784412818423898</v>
+        <v>0.33456408810478033</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14531,11 +14531,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6403230573912887E-4</v>
+        <v>3.8241777572595355E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8903721312974287E-5</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5598360655737695E-5</v>
+        <v>5.4508196721311469E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2302276675505162E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0362812366618631E-2</v>
+        <v>5.0871527643049128E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0393087861220327</v>
+        <v>1.0289156982608123</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6173798564099164</v>
+        <v>2.5919684014933155</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.370185465942916</v>
+        <v>3.3021009110753825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7941109551666163</v>
+        <v>3.7561698456149504</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7790941559570372</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6365633876444647</v>
+        <v>3.4287597654933517</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6034550906898248</v>
+        <v>2.7952886236880232</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4417741521548018</v>
+        <v>1.5606833605799402</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34112416826369762</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.215185453160704E-3</v>
+        <v>2.0042154100025416E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7506358773122374E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.599478833318095E-5</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.587773224043715E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,47 +14858,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.0273292717413894E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90073428130576172</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9503307109264587</v>
+        <v>2.8935935818701801</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3198470857707898</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1923832342651157</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443797E-3</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>3.1804043572288254</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.67397477964278</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6527452331044743</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.4867394196661912</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.7451266722691861</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5668551567693678</v>
+        <v>1.5833483689458874</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5340273725497153</v>
+        <v>1.5501750291028702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940588033731999</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>2.0507100916797434</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.1618836541946655</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>1.9733533712166029</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.1453125471605743</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1904550287263294</v>
+        <v>2.1462034119843834</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2704052933910721</v>
+        <v>2.1568850287215184</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>2.2630111274083502</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.4332210687692846</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1782786885245893E-5</v>
+        <v>5.7233606557377044E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2302276675505162E-5</v>
+        <v>3.1047819328883605E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8327951260896673E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15068,47 +15068,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4140882170771074</v>
+        <v>2.4649111269103097</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.506354575677983</v>
+        <v>3.4042277433766825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7561698456149504</v>
+        <v>3.718228736063284</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0973336638271034</v>
+        <v>4.1768935407946204</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6019294506192789</v>
+        <v>3.4287597654933517</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6856694619747672</v>
+        <v>2.850098204544651</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5012287563673712</v>
+        <v>1.4715014542610865</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31816388770748716</v>
+        <v>0.3280040079458631</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0253124143183579E-3</v>
+        <v>2.215185453160704E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8241777572595355E-4</v>
+        <v>3.8609486972331856E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0181265429276766E-4</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0106976318917431E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2906388748771099E-2</v>
+        <v>4.9345381813757652E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0808811375669141</v>
+        <v>1.0393087861220327</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5411454916601133</v>
+        <v>2.6173798564099164</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3361431885091495</v>
+        <v>3.2680586336416151</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,31 +15181,31 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9382139098920708</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.359491891442981</v>
+        <v>3.4287597654933517</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.7678838332597091</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4715014542610865</v>
+        <v>1.4120468500485173</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3280040079458631</v>
+        <v>0.31160380754856992</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1940884488448878E-3</v>
+        <v>2.0675064229499903E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.530010237470341E-4</v>
+        <v>3.8241777572595355E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1782786885245893E-5</v>
+        <v>5.287295081967212E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0420590655572826E-5</v>
+        <v>3.167504800219438E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0362812366618631E-2</v>
+        <v>5.0871527643049128E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99773643467715134</v>
+        <v>1.0600949618444733</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.490322581826911</v>
+        <v>2.5157340367435119</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2680586336416151</v>
+        <v>3.5403968531117505</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9838165029249475</v>
+        <v>3.8699931742699487</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1768935407946204</v>
+        <v>4.0575537253433458</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2902240173926103</v>
+        <v>3.6365633876444647</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.7130742524030813</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863651053142288</v>
+        <v>1.5012287563673712</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34440420834315622</v>
+        <v>0.34112416826369762</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1940884488448878E-3</v>
+        <v>2.0886034272658066E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8241777572595355E-4</v>
+        <v>3.7506358773122374E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2116211026789789E-5</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1147808233773386</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5888657793851371</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.5972278660428243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8708802953499215</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9278711736147973</v>
+        <v>2.956575792963962</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>1.6145200985171724</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653464E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1777034719434027</v>
+        <v>2.2684411166077112</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>1.9551559826044351</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>1.9520689695862938</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.57002781474051</v>
+        <v>1.6493221488183134</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4696339308265798</v>
+        <v>1.4839022214171291</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.267433453719947</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0458306765231782</v>
+        <v>1.1220891633529932</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1093599543359784</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0392780687024945</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0291315663128529</v>
+        <v>0.99915686049791552</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>1.0431741958861553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2063527944256922</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3670595730193091</v>
+        <v>1.4089083354586758</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5543921890801602</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4334365859956639</v>
+        <v>1.5390582291742918</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>1.6533006808990165</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7633451439141845</v>
+        <v>1.7806328414035395</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7466685769558774</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6296162820241253</v>
+        <v>1.6131555114986291</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9004987356703438</v>
+        <v>1.7887046923956176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7148647540983604E-5</v>
+        <v>6.8533155737704921E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9910560482764925E-5</v>
+        <v>4.0305714546950717E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,11 +26687,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0888374248169536E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2983917825218414</v>
+        <v>1.2721616455011981</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26699,43 +26699,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3602762012640293</v>
+        <v>4.1422623912008278</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6529903137528894</v>
+        <v>4.6050213414461592</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8003473979985145</v>
+        <v>4.9519373158300466</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6450563544199062</v>
+        <v>4.4681018266324806</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5823364947757517</v>
+        <v>3.4445543218997612</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9001659621009799</v>
+        <v>1.8442787279215391</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42494556331718769</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6604956397719517E-3</v>
+        <v>2.713178721747634E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.646741830483679E-4</v>
+        <v>4.5113998354210478E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1263388497759896E-4</v>
+        <v>1.1498042424796562E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0609918032786889E-5</v>
+        <v>6.7840901639344255E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9120252354393341E-5</v>
+        <v>3.9910560482764925E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,31 +26788,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0254120349751097E-2</v>
+        <v>6.2791135943424822E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2983917825218414</v>
+        <v>1.2852767140115198</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3978863354429931</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3166734392513888</v>
+        <v>4.5346872493145902</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0367420922067367</v>
+        <v>4.6050213414461592</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.305647124103622</v>
+        <v>4.8508773706090249</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5565790905261938</v>
+        <v>4.2469086668982001</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7883914937420986</v>
+        <v>1.8629078059813526</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26828,15 +26828,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6341540987841103E-3</v>
+        <v>2.581471016808428E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6016278321294683E-4</v>
+        <v>4.3309438420042058E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1263388497759896E-4</v>
+        <v>1.1498042424796562E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1302172131147541E-5</v>
+        <v>6.8533155737704921E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8329944226021757E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,11 +26889,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2156882045006398E-2</v>
+        <v>6.2791135943424822E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.311506851032163</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26901,23 +26901,23 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5782900113272316</v>
+        <v>4.1858651532134683</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7968972306730819</v>
+        <v>4.6050213414461592</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8003473979985145</v>
+        <v>4.9014073432195362</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6008177224730495</v>
+        <v>4.4238631946856248</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5823364947757517</v>
+        <v>3.5134454083377564</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26925,19 +26925,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43744396223828141</v>
+        <v>0.42911169629088564</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6868371807597926E-3</v>
+        <v>2.5551294758205867E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3309438420042058E-4</v>
+        <v>4.376057840358416E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1263388497759896E-4</v>
+        <v>1.196735027886989E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>3.1612325134863302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,15 +27240,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>2.831571946202494</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27256,39 +27256,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2529393613846489</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8708802953499215</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9852804123131267</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5058504765015934</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508728E-4</v>
+        <v>3.8722848587363992E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2883846118679703E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,71 +27313,71 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>2.2684411166077112</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0471346011802392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0526910814206394</v>
+        <v>1.9923178143200322</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.8295297158972694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>1.4981705120076785</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.2930381699567137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0567247460702947</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0928491031716954</v>
+        <v>1.0499922755963347</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95919058607799879</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0229183862572979</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2187894211723487</v>
+        <v>1.3058458083989453</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4368075104182534</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27385,27 +27385,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.4787030045007901</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4958434731943482</v>
+        <v>1.6533006808990165</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6423312614887011</v>
+        <v>1.8152082363822488</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6954593641261104</v>
+        <v>1.6625378230751178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>1.7887046923956176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0609918032786889E-5</v>
+        <v>6.5764139344262287E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,43 +27442,43 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.152262814658796E-2</v>
+        <v>6.342538984184326E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3508520565631279</v>
+        <v>1.2983917825218414</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3978863354429931</v>
+        <v>3.268443046473736</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4474817252893102</v>
+        <v>4.1422623912008278</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8448662029798131</v>
+        <v>5.0367420922067367</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.2551171514931116</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4238631946856248</v>
+        <v>4.2469086668982001</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5134454083377564</v>
+        <v>3.3412176922427683</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8815368840411661</v>
+        <v>1.7697624156822849</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40828103142239602</v>
+        <v>0.41661329736979186</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27486,11 +27486,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3309438420042058E-4</v>
+        <v>4.285829843649995E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2084677242388224E-4</v>
+        <v>1.1380715461278228E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9225409836065572E-5</v>
+        <v>6.5764139344262287E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1096022675322301E-5</v>
+        <v>3.9910560482764925E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,23 +27543,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.342538984184326E-2</v>
+        <v>6.2791135943424822E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.2590465769908765</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1389997575044788</v>
+        <v>3.3655255132006783</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1422623912008278</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.557052369139428</v>
+        <v>4.7009592860596197</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27575,23 +27575,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7883914937420986</v>
+        <v>1.7697624156822849</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40828103142239602</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6868371807597926E-3</v>
+        <v>2.7658618037233159E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.376057840358416E-4</v>
+        <v>4.7369698271921E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1615369388314893E-4</v>
+        <v>1.2319331169424887E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7840901639344255E-5</v>
+        <v>7.2686680327868858E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9120252354393341E-5</v>
+        <v>4.1096022675322301E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,35 +27644,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5962405435516999E-2</v>
+        <v>6.5328151537098561E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.3770821935837712</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2037214019891072</v>
+        <v>3.268443046473736</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5782900113272316</v>
+        <v>4.4910844873019506</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8448662029798131</v>
+        <v>4.6529903137528894</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8003473979985145</v>
+        <v>4.9014073432195362</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6008177224730495</v>
+        <v>4.2911472988450559</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5823364947757517</v>
+        <v>3.3067721490237707</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27680,19 +27680,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42077943034348975</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.607812557796269E-3</v>
+        <v>2.7395202627354745E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5113998354210478E-4</v>
+        <v>4.466285837066837E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1615369388314893E-4</v>
+        <v>1.196735027886989E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0710639283429331</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,23 +27926,23 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.4882209610112236</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0139850316622914</v>
+        <v>2.7843480768689739</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27954,15 +27954,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,23 +27987,23 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3138099389398654</v>
+        <v>2.3591787612720196</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0349582676086979</v>
+        <v>1.895304268851238</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0889128583471828</v>
+        <v>2.1515802440975982</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6874303204877728</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28011,39 +28011,39 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4981705120076785</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2802358118383304</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.1495150522574702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0567247460702947</v>
+        <v>1.0894069547116441</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>1.0982663547926188</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249917238532159</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>1.0330462910717266</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28051,35 +28051,35 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.390205561382956</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>1.5068087547205633</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4636141983324147</v>
+        <v>1.5692358415110428</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7283809051771026</v>
+        <v>1.6954593641261104</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6456393442622939E-5</v>
+        <v>6.7840901639344255E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9120252354393341E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,51 +28116,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0888374248169536E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.2459315084805549</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3978863354429931</v>
+        <v>3.3008038687160504</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1858651532134683</v>
+        <v>4.4474817252893102</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8448662029798131</v>
+        <v>5.0367420922067367</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1035272336615787</v>
+        <v>5.2045871788825995</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4681018266324806</v>
+        <v>4.6008177224730495</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3412176922427683</v>
+        <v>3.4789998651187588</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7697624156822849</v>
+        <v>1.8815368840411661</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42077943034348975</v>
+        <v>0.42494556331718769</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5024463938449048E-3</v>
+        <v>2.581471016808428E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3309438420042058E-4</v>
+        <v>4.646741830483679E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9225409836065572E-5</v>
+        <v>6.7840901639344255E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9515406418579133E-5</v>
+        <v>4.1096022675322301E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6596659333935437E-2</v>
+        <v>6.5328151537098561E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.311506851032163</v>
+        <v>1.2852767140115198</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2037214019891072</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5346872493145902</v>
+        <v>4.3602762012640293</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6050213414461592</v>
+        <v>5.0367420922067367</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.1540572062720891</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2026700349513435</v>
+        <v>4.2469086668982001</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4101087786807636</v>
+        <v>3.2723266058047731</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9560531962804204</v>
+        <v>1.7883914937420986</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40411489844869808</v>
+        <v>0.41244716439609397</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5287879348327462E-3</v>
+        <v>2.6604956397719517E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5113998354210478E-4</v>
+        <v>4.556513833775258E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732696351833227E-4</v>
+        <v>1.1146061534241563E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2686680327868858E-5</v>
+        <v>7.1302172131147541E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7934790161835966E-5</v>
+        <v>3.9515406418579133E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,31 +28318,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0888374248169536E-2</v>
+        <v>6.5328151537098561E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.311506851032163</v>
+        <v>1.3770821935837712</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2360822242314216</v>
+        <v>3.2037214019891072</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3166734392513888</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9887731199000056</v>
+        <v>4.6050213414461592</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8508773706090249</v>
+        <v>5.2045871788825995</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4238631946856248</v>
+        <v>4.6008177224730495</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28358,15 +28358,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7395202627354745E-3</v>
+        <v>2.5024463938449048E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6016278321294683E-4</v>
+        <v>4.285829843649995E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2319331169424887E-4</v>
+        <v>1.1380715461278228E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADCEA77-7515-46BD-95F5-CDD20F844149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB48EDAF-762F-49F7-B7B3-52F40B9AA63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3480" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>14.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114749E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13522,43 +13522,43 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9503307109264587</v>
+        <v>2.921962146398319</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0669063554263483</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306394E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13591,59 +13591,59 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6466893227076493</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0903071551036558</v>
+        <v>1.9857917973484729</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.7634964267141249</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5998415811224072</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483400615244678</v>
+        <v>1.4451173907561699</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4353895823832163</v>
+        <v>1.5078840057359042</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.4014301830377334</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3798421774955067</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2929603098220055</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7628387210475529</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13651,31 +13651,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>2.1583552497681597</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0191176914452464</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2789582622102214</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.383563495937258</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7619548322209011E-6</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2972239548977528E-2</v>
+        <v>2.6198836736170301E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26502374046111832</v>
+        <v>0.50406476126918587</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61622778172757742</v>
+        <v>1.2705727458300566</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.842546366485729</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93904246140373759</v>
+        <v>1.9919082514624737</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96466350823113856</v>
+        <v>2.0486668319135517</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90914084691111618</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65086377267245621</v>
+        <v>1.4250491022723255</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36787536356527162</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4461032046059745E-2</v>
+        <v>0.15908194385374358</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.53796363290176E-4</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7330982437417272E-5</v>
+        <v>1.7466196487483454E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3756286001645788E-5</v>
+        <v>4.9936682819786049E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4035860655737705E-5</v>
+        <v>2.6709016393442621E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6835512480570542E-6</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2081987815224168E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24683583670398274</v>
+        <v>0.51965439306101635</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64799210037332888</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80850408905196214</v>
+        <v>1.6680715942545747</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91058662923998801</v>
+        <v>1.9729376966866403</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0342784005777155</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90048236265481973</v>
+        <v>1.6451120086963051</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69882215592200581</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38645492738169951</v>
+        <v>0.77290985476339902</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5281042065924406E-2</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4852211221122194E-4</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1927349934123456E-5</v>
+        <v>1.8385469986824691E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3756286001645788E-5</v>
+        <v>4.7997394166590475E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3354508196721311E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7619548322209011E-6</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2209166634331789E-2</v>
+        <v>2.6198836736170301E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27281855635703361</v>
+        <v>0.50926130519979607</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60987491799842719</v>
+        <v>1.2070441085385537</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89360978263637936</v>
+        <v>1.7021138716883413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94852773879165408</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97460849285207796</v>
+        <v>1.9889969241879144</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182387839852328</v>
+        <v>1.8182816938222324</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6714173654936918</v>
+        <v>1.3291323357732265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37902310185512833</v>
+        <v>0.77290985476339902</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3641022026195083E-2</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2215085681645164E-4</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3765896932805935E-5</v>
+        <v>1.9304743486165928E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4725930328243572E-5</v>
+        <v>4.7512572003291577E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.587773224043715E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977353E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,19 +14184,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84010793544864304</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0752688181890924</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.921962146398319</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1823950787006625</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,23 +14212,23 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1767057083737644</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,11 +14257,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.0275003015928235</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14269,59 +14269,59 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6253973441033973</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.0485010120015827</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634964267141249</v>
+        <v>1.8920847078286966</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5668551567693678</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6147656553154899</v>
+        <v>1.5501750291028702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598634865802125</v>
+        <v>1.4451173907561699</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4643873517242918</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5170120538037322</v>
+        <v>1.4158779168834834</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.298674990584006</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5949493190430239</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9061874785840249</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9335266578694723</v>
+        <v>1.8944655132660486</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14329,27 +14329,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0191176914452464</v>
+        <v>2.1453125471605743</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1904550287263294</v>
+        <v>2.1019517952424369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3385174521928045</v>
+        <v>2.3612215051267151</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2410401455888516</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580498551852976</v>
+        <v>2.6070225736813764</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548595E-6</v>
+        <v>1.6307945506080278E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26242546849581327</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66069782783162945</v>
+        <v>1.2070441085385537</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.842546366485729</v>
+        <v>1.7701984265558752</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91058662923998801</v>
+        <v>1.8401438132558088</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0442233851986551</v>
+        <v>1.8895470779785186</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8485314571170417</v>
+        <v>1.7143798827466759</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>1.3839419166298546</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38273901461841392</v>
+        <v>0.75061437818368559</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7900951887142481E-2</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.274251078954057E-4</v>
+        <v>1.0337532114749952E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8250255936758525E-5</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4483519246594129E-5</v>
+        <v>5.042150498308494E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899590163934424E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9971655847124436E-6</v>
+        <v>1.5210295327786413E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24943410866928784</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62893350918587798</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83403579712728737</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99595412573123687</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96466350823113856</v>
+        <v>1.9094370472203976</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90048236265481973</v>
+        <v>1.6970629142340834</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67826856310077033</v>
+        <v>1.4113467070581684</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35672762527541491</v>
+        <v>0.75061437818368559</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7900951887142481E-2</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2215085681645164E-4</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4685170432147161E-5</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998697083295238E-5</v>
+        <v>4.848221632988936E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4172131147540984E-5</v>
+        <v>2.7526639344262293E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5267440797293578E-6</v>
+        <v>1.5210295327786413E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>2.4927048545094071E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26242546849581327</v>
+        <v>0.54044056878345703</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61622778172757742</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85105693584417064</v>
+        <v>1.7021138716883413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91058662923998801</v>
+        <v>1.9729376966866403</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9944984620939572</v>
+        <v>1.9094370472203976</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8485314571170417</v>
+        <v>1.6797459457214905</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>1.4387514974864826</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38645492738169951</v>
+        <v>0.77290985476339902</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4461032046059745E-2</v>
+        <v>0.15908194385374358</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1160235465854353E-4</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9169529436099751E-5</v>
+        <v>1.8753179386561187E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3513874919996339E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.769467213114754E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-5</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.181149880341597</v>
+        <v>2.2023260927720982</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>2.9150230329531022</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.28153677348686579</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821568E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>3.0275003015928235</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14939,67 +14939,67 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6253973441033973</v>
+        <v>2.7347889001077057</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.344640024256694</v>
+        <v>2.4630561870979415</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7451266722691861</v>
+        <v>1.8920847078286966</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6163347932989269</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309133118686447</v>
+        <v>1.6470609684217996</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.5188478698763828</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3918929283716039</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4447733845749831</v>
+        <v>1.4158779168834834</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.406897906466007</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.319619285282253</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7460497808471001</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.8314350284434751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.1618836541946655</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15007,11 +15007,11 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.2084099750182382</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>2.1462034119843834</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15019,11 +15019,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1311852364913588</v>
+        <v>2.1970981819498543</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.383563495937258</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4172131147540984E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5267440797293578E-6</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25463065259989803</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64163923664417855</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87658864391949576</v>
+        <v>1.6680715942545747</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98646884834332016</v>
+        <v>1.9539671419108076</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98455347747301769</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88316539414222694</v>
+        <v>1.6970629142340834</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69197095831492728</v>
+        <v>1.3839419166298546</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38645492738169951</v>
+        <v>0.74318255265711441</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6101052085789054E-2</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0632810357958947E-4</v>
+        <v>1.0864957222645358E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4685170432147161E-5</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.424110816494468E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3081967213114751E-5</v>
+        <v>2.7799180327868847E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7619548322209011E-6</v>
+        <v>1.5367102496114108E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2590703091654658E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25463065259989803</v>
+        <v>0.51445784913040615</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62258064545672775</v>
+        <v>1.2959842007466578</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89360978263637936</v>
+        <v>1.6170081781039243</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99595412573123687</v>
+        <v>1.821173258479976</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97460849285207796</v>
+        <v>1.9492169857041559</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85718994137333793</v>
+        <v>1.6624289772088978</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70567335352908422</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39017084014498504</v>
+        <v>0.78034168028997009</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5281042065924406E-2</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.53796363290176E-4</v>
+        <v>1.0126562071591789E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4685170432147161E-5</v>
+        <v>1.8201615286956443E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4968341409893024E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3081967213114751E-5</v>
+        <v>2.8616803278688522E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548595E-6</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24943410866928784</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66705069156077967</v>
+        <v>1.3086899282049582</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88509921327793761</v>
+        <v>1.7531772878389915</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91058662923998801</v>
+        <v>1.821173258479976</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0442233851986551</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90914084691111618</v>
+        <v>1.7143798827466759</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>1.3017275453449124</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38273901461841392</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0360981946736451E-2</v>
+        <v>0.17220210417157811</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.274251078954057E-4</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8250255936758525E-5</v>
+        <v>1.9120888786297677E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3029052756697447E-5</v>
+        <v>4.6058105513394895E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.4575980616256741E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,19 +26485,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.3911581365566771E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0382762570671291</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26509,7 +26509,7 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6865526622380207</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26517,19 +26517,19 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,23 +26558,23 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.3591787612720196</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.895304268851238</v>
+        <v>1.915254840102304</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>2.1515802440975982</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929399261543771</v>
+        <v>2.072815503787508</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8650545647496437</v>
+        <v>1.8117672914710823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26590,15 +26590,15 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0458306765231782</v>
+        <v>1.0676188156174111</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0760791557058991</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26606,51 +26606,51 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0431741958861553</v>
+        <v>1.0634300055150128</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.3810091604990982</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621206005469368</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5068087547205633</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5541470353426674</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>1.5430806355057487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.7633451439141845</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794890163037282</v>
+        <v>1.6458992359776536</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7119201346516064</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9004987356703438</v>
+        <v>1.8818663951245562</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441034836065572E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0076428636737679E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5697783985856206E-2</v>
+        <v>3.076131407329398E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34427054839594279</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81711076161843399</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0573669788065272</v>
+        <v>2.2237408626446551</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1512553353615398</v>
+        <v>2.278526184569714</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.225351835804884</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1059657986714062</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88697273788918851</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47038422101029154</v>
+        <v>0.92213936396076956</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10831945731614588</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3219698370818654E-4</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1729639572094724E-4</v>
+        <v>2.1654719210021029E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8745106061991404E-5</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441034836065572E-5</v>
+        <v>3.426657786885246E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6812745725518873E-6</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6014910935065425E-2</v>
+        <v>3.2346948819340068E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32131917850287994</v>
+        <v>0.63608082275059907</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77665973381554121</v>
+        <v>1.6504019343580252</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0791683598128472</v>
+        <v>2.1801381006320146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.139263092284857</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2885143015680223</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0506675087378359</v>
+        <v>2.1898122813693846</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88697273788918851</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45641241246543135</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10415332434244796</v>
+        <v>0.21038971517174487</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4536775420210701E-4</v>
+        <v>1.356589360873817E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1165714592667093E-4</v>
+        <v>2.3233709152418395E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9038423470787234E-5</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7652479508196722E-5</v>
+        <v>3.2882069672131143E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7800630885983353E-6</v>
+        <v>2.054801133766115E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6649164833483859E-2</v>
+        <v>3.1078441022503199E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33443424701320157</v>
+        <v>0.63608082275059907</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82520096717901259</v>
+        <v>1.5533194676310824</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1009697408191674</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1632475784382224</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379843289575116</v>
+        <v>2.652823562051811</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1059657986714062</v>
+        <v>2.1676929653959562</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88697273788918851</v>
+        <v>1.8083910189973746</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4890132990701051</v>
+        <v>0.94076844202058307</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9987191368750047E-2</v>
+        <v>0.21038971517174487</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5853852469602758E-4</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0714574609124988E-4</v>
+        <v>2.188028920179208E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0798327923562218E-5</v>
+        <v>5.7490212123982808E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0382762570671291</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7789060410954924</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9574402153052928</v>
+        <v>3.9174660717163503</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3792642929109258</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8991665542656326</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6145200985171724</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1073232790272882E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078906E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2883846118679703E-5</v>
+        <v>9.7772469598610213E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,27 +27313,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2684411166077112</v>
+        <v>2.3818631724380968</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.895304268851238</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.068023729763711</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>1.9520689695862938</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6874303204877728</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5065923474782672</v>
+        <v>1.6493221488183134</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27341,15 +27341,15 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290263793647971</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0567247460702947</v>
+        <v>1.0458306765231782</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27357,47 +27357,47 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0178496549148142</v>
+        <v>1.0928491031716954</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0291315663128529</v>
+        <v>0.99915686049791552</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2063527944256922</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4182905222189757</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4636141983324147</v>
+        <v>1.4937918106691654</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533006808990165</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806328414035395</v>
+        <v>1.728769748935475</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7466685769558774</v>
+        <v>1.5955145654885416</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787161885245901E-5</v>
+        <v>3.3574323770491802E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7800630885983353E-6</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6173474409670034E-2</v>
+        <v>3.0127060174875549E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34427054839594279</v>
+        <v>0.66231095977124232</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84947158386074828</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1009697408191674</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2591855230516842</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3264117810259055</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0506675087378359</v>
+        <v>2.1455736494225279</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81808165145119327</v>
+        <v>1.6533860745118854</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44244060392057122</v>
+        <v>0.9128248249308627</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10831945731614588</v>
+        <v>0.20414051571119801</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.782946804369085E-4</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1616854576209198E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0211693105970559E-5</v>
+        <v>6.1596655847124437E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6960225409836064E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>1.8967395080917983E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5856347460460815E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31804041137529954</v>
+        <v>0.66231095977124232</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7847499393761197</v>
+        <v>1.6827627566003391</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0573669788065272</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2591855230516842</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2506168221101395</v>
+        <v>2.5517636168307893</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1059657986714062</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83530442306069208</v>
+        <v>1.8083910189973746</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44709787343552465</v>
+        <v>0.95939752008039658</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10415332434244796</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5195313944906724E-4</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1616854576209198E-4</v>
+        <v>2.3008139160647341E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8451788653195571E-5</v>
+        <v>5.9836751394349452E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7998606557377052E-5</v>
+        <v>3.426657786885246E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274005668830575E-5</v>
+        <v>1.9560126177196671E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.649060135887925E-2</v>
+        <v>3.076131407329398E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32459794563046035</v>
+        <v>0.68198356253672476</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7847499393761197</v>
+        <v>1.6665823454791822</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1227711218254877</v>
+        <v>2.1801381006320146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2352010368983186</v>
+        <v>2.4704020737966372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2758818084153947</v>
+        <v>2.4001736989992573</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.06172716672455</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87836135208443911</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46106968198038478</v>
+        <v>0.90351028590095606</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10519485758587244</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.782946804369085E-4</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.184242456798025E-4</v>
+        <v>2.1654719210021029E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8745106061991404E-5</v>
+        <v>5.9250116576757799E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256741E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,7 +27914,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27922,47 +27922,47 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6697678349909229</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.5245565960217573</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7975436409495233</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.0423978088408541</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6496871356156406</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.956575792963962</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368378E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854074E-4</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27991,11 +27991,11 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0748594101108293</v>
+        <v>1.915254840102304</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,35 +28003,35 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8117672914710823</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1613657228993</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.0894069547116441</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.1204535538793383</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,47 +28039,47 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2560993014123187</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3670595730193091</v>
+        <v>1.3810091604990982</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.3621206005469368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6495590577993537</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.606063518587616</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634634671189149</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5637731999221405</v>
+        <v>1.6625378230751178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>1.8259693734871931</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7479415983606556E-5</v>
+        <v>3.5304959016393445E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>1.9955280241382462E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5063530087437774E-2</v>
+        <v>3.3298329666967719E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32459794563046035</v>
+        <v>0.66231095977124232</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79284014493669819</v>
+        <v>1.6180411121157108</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.035565597800207</v>
+        <v>2.2237408626446551</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2112165507449533</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2885143015680223</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1170254566581201</v>
+        <v>2.1898122813693846</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87836135208443911</v>
+        <v>1.7222771609498806</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47969876004019829</v>
+        <v>0.95008298105048994</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8945658125325575E-2</v>
+        <v>0.20414051571119801</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5195313944906724E-4</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1165714592667093E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7865153835603908E-5</v>
+        <v>6.101002102953277E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441034836065572E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5063530087437774E-2</v>
+        <v>3.0444187124084768E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31476164424771913</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80902055605785539</v>
+        <v>1.6989431677214966</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1009697408191674</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2232087938216361</v>
+        <v>2.4464175876432721</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2632493152627671</v>
+        <v>2.5264986305255341</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1502044306182624</v>
+        <v>2.2782895452630969</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81808165145119327</v>
+        <v>1.7050543893403818</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46106968198038478</v>
+        <v>0.92213936396076956</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10623639082929692</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8488006568386862E-4</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0714574609124988E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9331740879583067E-5</v>
+        <v>5.9836751394349452E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8171670081967214E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0372794184877023E-5</v>
+        <v>1.9560126177196671E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.538065703664699E-2</v>
+        <v>3.0127060174875549E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33443424701320157</v>
+        <v>0.62952328849543826</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81711076161843399</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1445725028318079</v>
+        <v>2.1801381006320146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2112165507449533</v>
+        <v>2.3025106707230796</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2758818084153947</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1059657986714062</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84391580886544149</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45641241246543135</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10415332434244796</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9146545093082897E-4</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1278499588552619E-4</v>
+        <v>2.36848491359605E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9038423470787234E-5</v>
+        <v>5.6316942488799482E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB48EDAF-762F-49F7-B7B3-52F40B9AA63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA1B5D1-AE6B-4E9C-9EE6-B67DDD0B387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3480" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5310" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13518,43 +13518,43 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0329163933280907</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.314994873646524</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2596698396238083</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,15 +13583,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7012602365779106</v>
+        <v>2.8104020643184322</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13599,23 +13599,23 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>2.4393729545296923</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9857917973484729</v>
+        <v>2.1112102266546926</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634964267141249</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.6309133118686447</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13623,27 +13623,27 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5078840057359042</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4014301830377334</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3798421774955067</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.7940588033731999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13651,31 +13651,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583552497681597</v>
+        <v>2.0555764283506281</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3232098789521678</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.2630111274083502</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
+        <v>2.5077074280173237</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.6307945506080278E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,27 +13712,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6198836736170301E-2</v>
+        <v>2.5944479097955057E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50406476126918587</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2705727458300566</v>
+        <v>1.2324555634551548</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7872195652727587</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9919082514624737</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0486668319135517</v>
+        <v>2.0088868934297937</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13740,27 +13740,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4250491022723255</v>
+        <v>1.4387514974864826</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72088707607740088</v>
+        <v>0.78034168028997009</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15908194385374358</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0759472201066276E-3</v>
+        <v>1.107592726580352E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7466196487483454E-4</v>
+        <v>1.9120888786297677E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9936682819786049E-5</v>
+        <v>4.8967038493188259E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6709016393442621E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.5367102496114108E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,27 +13813,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5435763821524564E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51965439306101635</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2197498359968544</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6680715942545747</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9729376966866403</v>
+        <v>1.8022027037041426</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0884467703973102</v>
+        <v>1.9094370472203976</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13841,27 +13841,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3565371262015407</v>
+        <v>1.3291323357732265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77290985476339902</v>
+        <v>0.70602342502425863</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16400200397293155</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8385469986824691E-4</v>
+        <v>1.783390588721995E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7997394166590475E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8344262295081967E-5</v>
+        <v>2.7799180327868847E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.583752400109719E-5</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6198836736170301E-2</v>
+        <v>2.5944479097955057E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13922,47 +13922,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2070441085385537</v>
+        <v>1.3086899282049582</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7021138716883413</v>
+        <v>1.6680715942545747</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8780849228074752</v>
+        <v>1.8401438132558088</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9889969241879144</v>
+        <v>1.9492169857041559</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8182816938222324</v>
+        <v>1.7663307882844539</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3291323357732265</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77290985476339902</v>
+        <v>0.73575072713054324</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16400200397293155</v>
+        <v>0.15908194385374358</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9304743486165928E-4</v>
+        <v>1.8937034086429432E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7512572003291577E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.1121151511464706E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1933767205985686</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2608952103359008</v>
+        <v>2.3979191624774709</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14261,87 +14261,87 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>2.8376875212535624</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2972735591201952</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0485010120015827</v>
+        <v>2.0066948688995097</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5501750291028702</v>
+        <v>1.5340273725497153</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.4933851210653668</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3062897975521293</v>
+        <v>1.319619285282253</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8944655132660486</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>2.1377994854846532</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1453125471605743</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1019517952424369</v>
+        <v>2.1462034119843834</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.1795890816554291</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6163934426229502E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6307945506080278E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14390,51 +14390,51 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49367167340796547</v>
+        <v>0.54044056878345703</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2070441085385537</v>
+        <v>1.2705727458300566</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7701984265558752</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8401438132558088</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8895470779785186</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7143798827466759</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3839419166298546</v>
+        <v>1.3154299405590695</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75061437818368559</v>
+        <v>0.73575072713054324</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16564202401266087</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0337532114749952E-3</v>
+        <v>1.107592726580352E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.9304743486165928E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.042150498308494E-5</v>
+        <v>4.9936682819786049E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.6709016393442621E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,51 +14487,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.5690121459739812E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54563711271406723</v>
+        <v>0.54044056878345703</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2832784732883571</v>
+        <v>1.3086899282049582</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7191350104052248</v>
+        <v>1.7701984265558752</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.859114368031642</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9094370472203976</v>
+        <v>1.9691069549460354</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6970629142340834</v>
+        <v>1.7490138197718614</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4113467070581684</v>
+        <v>1.4387514974864826</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75061437818368559</v>
+        <v>0.74318255265711441</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.17056208413184881</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.0337532114749952E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8017760587088198E-4</v>
+        <v>1.8201615286956443E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7526639344262293E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.5367102496114108E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4927048545094071E-2</v>
+        <v>2.5181406183309316E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54044056878345703</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2832784732883571</v>
+        <v>1.2705727458300566</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7021138716883413</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9729376966866403</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9094370472203976</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6797459457214905</v>
+        <v>1.7663307882844539</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4387514974864826</v>
+        <v>1.3017275453449124</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77290985476339902</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15908194385374358</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0864957222645358E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8753179386561187E-4</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6542927676693786E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,11 +14858,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2816869099566349E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86609065510169392</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14870,11 +14870,11 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098523946719403</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14882,31 +14882,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9150230329531022</v>
+        <v>3.0304694897037203</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28153677348686579</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260736E-4</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.2419767760811915E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,11 +14931,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14943,15 +14943,15 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7347889001077057</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4630561870979415</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14959,31 +14959,31 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470609684217996</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>1.430371294932127</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.4063918130421413</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.4014301830377334</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.406897906466007</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.266301334361758</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14999,31 +14999,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1618836541946655</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1462034119843834</v>
+        <v>2.1904550287263294</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.1795890816554291</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>2.1531562183108575</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
+        <v>2.4828786416013107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6163934426229502E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.583752400109719E-5</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.4927048545094071E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54563711271406723</v>
+        <v>0.50926130519979607</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2197498359968544</v>
+        <v>1.257867018371756</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6680715942545747</v>
+        <v>1.7872195652727587</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9539671419108076</v>
+        <v>1.8022027037041426</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>2.0685568011554309</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6970629142340834</v>
+        <v>1.7663307882844539</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3839419166298546</v>
+        <v>1.3976443118440116</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0864957222645358E-3</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.783390588721995E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9451860656487143E-5</v>
+        <v>4.8967038493188259E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.643647540983606E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5367102496114108E-5</v>
+        <v>1.5680716832769496E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.5690121459739812E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51445784913040615</v>
+        <v>0.50406476126918587</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2959842007466578</v>
+        <v>1.257867018371756</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6170081781039243</v>
+        <v>1.6680715942545747</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.821173258479976</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9492169857041559</v>
+        <v>2.0486668319135517</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6624289772088978</v>
+        <v>1.8182816938222324</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3565371262015407</v>
+        <v>1.3291323357732265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78034168028997009</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16564202401266087</v>
+        <v>0.17056208413184881</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0126562071591789E-3</v>
+        <v>1.107592726580352E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8201615286956443E-4</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7027749839992678E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8616803278688522E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5994331169424887E-5</v>
+        <v>1.5210295327786413E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54563711271406723</v>
+        <v>0.51965439306101635</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.3213956556632589</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7531772878389915</v>
+        <v>1.6170081781039243</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.821173258479976</v>
+        <v>1.9349965871349744</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7143798827466759</v>
+        <v>1.6797459457214905</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3839419166298546</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.74318255265711441</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17220210417157811</v>
+        <v>0.15744192381401428</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9120888786297677E-4</v>
+        <v>1.783390588721995E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6058105513394895E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.7110963114754101E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0710639283429331</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6697678349909229</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.126614429858372</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7556434575198092</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.35759308024240466</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.8722848587363992E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,39 +26558,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>2.2684411166077112</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.915254840102304</v>
+        <v>2.094809981361895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1515802440975982</v>
+        <v>2.1098019869306546</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>2.0325666590537699</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8117672914710823</v>
+        <v>1.7407175937663342</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.57002781474051</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4410973496454813</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3442476024302468</v>
+        <v>1.2162240212464137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26598,47 +26598,47 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537343525094177</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249917238532159</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.97917372328795715</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>1.0330462910717266</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2809725549056319</v>
+        <v>1.1814795409323788</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.4228579229384648</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4334365859956639</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7633451439141845</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26646,11 +26646,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5802339704476367</v>
+        <v>1.7283809051771026</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8818663951245562</v>
+        <v>1.8073370329414054</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.565108606557377E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0152857273475358E-5</v>
+        <v>1.8769818048825087E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.076131407329398E-2</v>
+        <v>3.2029821870130849E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66886849402640314</v>
+        <v>0.68198356253672476</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.537139056509925</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2237408626446551</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278526184569714</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3225281772099531</v>
+        <v>2.2119315973428124</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.7050543893403818</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92213936396076956</v>
+        <v>0.94076844202058307</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.21038971517174487</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2512231969224524E-3</v>
+        <v>1.3697601313677372E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1654719210021029E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.9836751394349452E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>1.9955280241382462E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2346948819340068E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.67542602828156395</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6504019343580252</v>
+        <v>1.6180411121157108</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1801381006320146</v>
+        <v>2.0929325766067342</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.398448615336541</v>
+        <v>2.3504796430298098</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1898122813693846</v>
+        <v>2.1455736494225279</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.773945475778377</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.94076844202058307</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21038971517174487</v>
+        <v>0.21663891463229176</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.3039062788981345E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3233709152418395E-4</v>
+        <v>2.1429149218249975E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.8076846941574467E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882069672131143E-5</v>
+        <v>3.565108606557377E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.054801133766115E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,39 +26889,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1078441022503199E-2</v>
+        <v>3.0444187124084768E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.68198356253672476</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5533194676310824</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.0929325766067342</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3744641291831758</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.652823562051811</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1676929653959562</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8083910189973746</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94076844202058307</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26929,15 +26929,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2643939674163731E-3</v>
+        <v>1.3039062788981345E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.188028920179208E-4</v>
+        <v>2.3459279144189449E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7490212123982808E-5</v>
+        <v>6.0423386211941118E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27244,51 +27244,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1475684946531426</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6698991360638917</v>
+        <v>3.5972278660428243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9174660717163503</v>
+        <v>3.8375177845384654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9278711736147973</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32981886041775188</v>
+        <v>0.35759308024240466</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272882E-3</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.8346898601078906E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3818631724380968</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,55 +27321,55 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9520689695862938</v>
+        <v>2.0124422366869013</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.8295297158972694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493221488183134</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>1.398292477873833</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.2162240212464137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0458306765231782</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0982663547926188</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0928491031716954</v>
+        <v>1.1142775169593757</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99915686049791552</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026625766284405</v>
+        <v>0.96215095737072553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2809725549056319</v>
+        <v>1.3058458083989453</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27377,11 +27377,11 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.4182905222189757</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>1.6178367682262893</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27389,23 +27389,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5273349147352819</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.6423312614887011</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5955145654885416</v>
+        <v>1.6794890163037282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.678998593600614</v>
+        <v>1.7119201346516064</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
+        <v>1.9377634167619193</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3574323770491802E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9164972113010879E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0127060174875549E-2</v>
+        <v>3.076131407329398E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66231095977124232</v>
+        <v>0.62296575424027745</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.537139056509925</v>
+        <v>1.6827627566003391</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583367196256944</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4943865599500028</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759686579150233</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1234543334491001</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533860745118854</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9128248249308627</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20414051571119801</v>
+        <v>0.21038971517174487</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3434185903798963E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278256916887629E-4</v>
+        <v>2.1429149218249975E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1596655847124437E-5</v>
+        <v>5.6903577306391142E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967395080917983E-5</v>
+        <v>1.8769818048825087E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2664075768549281E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66231095977124232</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6827627566003391</v>
+        <v>1.5533194676310824</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.1147339576130544</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3744641291831758</v>
+        <v>2.3504796430298098</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5517636168307893</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3225281772099531</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8083910189973746</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95939752008039658</v>
+        <v>0.90351028590095606</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21455584814544282</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3434185903798963E-3</v>
+        <v>1.356589360873817E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3008139160647341E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9836751394349452E-5</v>
+        <v>5.6903577306391142E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27624,7 +27624,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9560126177196671E-5</v>
+        <v>1.9955280241382462E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27648,31 +27648,31 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68198356253672476</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6665823454791822</v>
+        <v>1.5533194676310824</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1801381006320146</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4704020737966372</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4001736989992573</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2561702292896686</v>
+        <v>2.1013350174756718</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.7911682473878758</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27680,19 +27680,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21455584814544282</v>
+        <v>0.19997438273750009</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2512231969224524E-3</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1654719210021029E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9250116576757799E-5</v>
+        <v>6.0423386211941118E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.232594661952069E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1147808233773386</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,27 +27926,27 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0423978088408541</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>2.8991665542656326</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4748020130685706</v>
+        <v>1.5679474033676386</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,67 +27987,67 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>2.2457567054416341</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.915254840102304</v>
+        <v>2.0748594101108293</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.57002781474051</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4268290590549317</v>
+        <v>1.398292477873833</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3442476024302468</v>
+        <v>1.267433453719947</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894069547116441</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1204535538793383</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0191399977078739</v>
+        <v>1.0291315663128529</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99253467181401167</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>1.2934091816522886</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28055,15 +28055,15 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5273349147352819</v>
+        <v>1.5430806355057487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28071,11 +28071,11 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.6296162820241253</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5304959016393445E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9955280241382462E-5</v>
+        <v>1.8769818048825087E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3298329666967719E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66231095977124232</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6180411121157108</v>
+        <v>1.6018607009945536</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2237408626446551</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.398448615336541</v>
+        <v>2.278526184569714</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759686579150233</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1898122813693846</v>
+        <v>2.2340509133162403</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7222771609498806</v>
+        <v>1.773945475778377</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95008298105048994</v>
+        <v>0.94076844202058307</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20414051571119801</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2512231969224524E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278256916887629E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.101002102953277E-5</v>
+        <v>5.6316942488799482E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9757703209289567E-5</v>
+        <v>1.8967395080917983E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,39 +28217,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0444187124084768E-2</v>
+        <v>3.2029821870130849E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66886849402640314</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6989431677214966</v>
+        <v>1.6665823454791822</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583367196256944</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4464175876432721</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5264986305255341</v>
+        <v>2.4001736989992573</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2782895452630969</v>
+        <v>2.1455736494225279</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7050543893403818</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92213936396076956</v>
+        <v>0.95008298105048994</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28261,11 +28261,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2105859193563131E-4</v>
+        <v>2.1654719210021029E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9836751394349452E-5</v>
+        <v>6.0423386211941118E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6343340163934429E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9560126177196671E-5</v>
+        <v>1.9955280241382462E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0127060174875549E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62952328849543826</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.537139056509925</v>
+        <v>1.6504019343580252</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1801381006320146</v>
+        <v>2.0711311956004139</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3025106707230796</v>
+        <v>2.278526184569714</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759686579150233</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3225281772099531</v>
+        <v>2.2782895452630969</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9780265981402102</v>
+        <v>0.94076844202058307</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20622358219804698</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3170770493920552E-3</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.36848491359605E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6316942488799482E-5</v>
+        <v>5.6903577306391142E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA1B5D1-AE6B-4E9C-9EE6-B67DDD0B387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD18B5D-7DF6-479B-B518-D080762C2CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9045" yWindow="5310" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -13490,7 +13490,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977353E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,47 +13510,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7517507592294854</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.0036711728402379</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.3812947711194545</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>2.9150230329531022</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1923832342651157</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27333667328821926</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-3</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,35 +13583,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.835553855468679</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8104020643184322</v>
+        <v>2.6466893227076493</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.8168325671109375</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1112102266546926</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>1.7818661811590637</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,19 +13619,19 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.400879103284042</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.4063918130421413</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430325650729233</v>
+        <v>1.3869824491919835</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.2851471260987561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.7292608406466472</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13647,23 +13647,23 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>2.031179519378032</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0555764283506281</v>
+        <v>2.0350206640671216</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.1663450231131289</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>2.2347066454682754</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6163934426229502E-5</v>
+        <v>2.6981557377049176E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6307945506080278E-5</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5944479097955057E-2</v>
+        <v>2.5690121459739812E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324555634551548</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8780849228074752</v>
+        <v>1.8970554775833082</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0088868934297937</v>
+        <v>2.0884467703973102</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13744,19 +13744,19 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78034168028997009</v>
+        <v>0.70602342502425863</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16564202401266087</v>
+        <v>0.17056208413184881</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.107592726580352E-3</v>
+        <v>1.0970442244224439E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9120888786297677E-4</v>
+        <v>1.8201615286956443E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.5891393442622947E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5367102496114108E-5</v>
+        <v>1.5523909664441802E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.5181406183309316E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.50406476126918587</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2832784732883571</v>
+        <v>1.257867018371756</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8022027037041426</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9094370472203976</v>
+        <v>1.8895470779785186</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6451120086963051</v>
+        <v>1.8182816938222324</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3291323357732265</v>
+        <v>1.4250491022723255</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70602342502425863</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.15744192381401428</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.107592726580352E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.783390588721995E-4</v>
+        <v>1.7466196487483454E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7027749839992678E-5</v>
+        <v>5.042150498308494E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5994331169424887E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5944479097955057E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50926130519979607</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6680715942545747</v>
+        <v>1.7361561491221082</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8401438132558088</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9492169857041559</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7663307882844539</v>
+        <v>1.7143798827466759</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3565371262015407</v>
+        <v>1.3291323357732265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73575072713054324</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15908194385374358</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0548502157908114E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8937034086429432E-4</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9451860656487143E-5</v>
+        <v>4.848221632988936E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,51 +14184,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464706E-2</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84010793544864304</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0540926057585915</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.314994873646524</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2596698396238083</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139094E-4</v>
+        <v>3.1561723477382383E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,19 +14257,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.835553855468679</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>2.7621367891087827</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14277,35 +14277,35 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.1321132982057289</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.7451266722691861</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>1.6163347932989269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5340273725497153</v>
+        <v>1.6147656553154899</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>1.400879103284042</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4933851210653668</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3725347153462339</v>
+        <v>1.5170120538037322</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3933700419807569</v>
+        <v>1.3257307195545065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14313,19 +14313,19 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.5949493190430239</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.8314350284434751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>1.9335266578694723</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537894714849321</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14333,23 +14333,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.0401501673978011</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1462034119843834</v>
+        <v>2.2125808370973026</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1795890816554291</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1751272001303561</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6070225736813764</v>
+        <v>2.5077074280173237</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.7799180327868847E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.489668099113102E-5</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,11 +14386,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54044056878345703</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14398,19 +14398,19 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7191350104052248</v>
+        <v>1.6510504555376913</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0884467703973102</v>
+        <v>1.9492169857041559</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.7143798827466759</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14418,23 +14418,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73575072713054324</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.107592726580352E-3</v>
+        <v>1.0864957222645358E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9304743486165928E-4</v>
+        <v>1.7466196487483454E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9936682819786049E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6709016393442621E-5</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.6307945506080278E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,23 +14487,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5690121459739812E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54044056878345703</v>
+        <v>0.50926130519979607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.2832784732883571</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7701984265558752</v>
+        <v>1.6170081781039243</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.859114368031642</v>
+        <v>1.8401438132558088</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14511,23 +14511,23 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7490138197718614</v>
+        <v>1.6451120086963051</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4387514974864826</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.76547802923682784</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17056208413184881</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0337532114749952E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.848221632988936E-5</v>
+        <v>4.6058105513394895E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6163934426229502E-5</v>
+        <v>2.6709016393442621E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5367102496114108E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,27 +14588,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5181406183309316E-2</v>
+        <v>2.645319437438555E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.50406476126918587</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2705727458300566</v>
+        <v>1.3341013831215593</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.8401438132558088</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>2.0685568011554309</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14616,27 +14616,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3291323357732265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75804620371025666</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16236198393320223</v>
+        <v>0.16728204405239017</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0864957222645358E-3</v>
+        <v>1.0337532114749952E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7027749839992678E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,51 +14858,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2023260927720982</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9786992754545976</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0304694897037203</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821568E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,19 +14931,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>2.67397477964278</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6253973441033973</v>
+        <v>2.7074410111066287</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14951,55 +14951,55 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0903071551036558</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>1.5998415811224072</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4063918130421413</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4014301830377334</v>
+        <v>1.4736688522664827</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.406897906466007</v>
+        <v>1.298674990584006</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8314350284434751</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9530572301711844</v>
+        <v>2.0507100916797434</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15015,15 +15015,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1795890816554291</v>
+        <v>2.3612215051267151</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1531562183108575</v>
+        <v>2.2849821092278488</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4828786416013107</v>
+        <v>2.3587347095212454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.7526639344262293E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5994331169424887E-5</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,23 +15060,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4927048545094071E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50926130519979607</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.257867018371756</v>
+        <v>1.2324555634551548</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7872195652727587</v>
+        <v>1.685092732971458</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8022027037041426</v>
+        <v>1.9729376966866403</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15084,31 +15084,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7663307882844539</v>
+        <v>1.7490138197718614</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3976443118440116</v>
+        <v>1.3154299405590695</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.77290985476339902</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16236198393320223</v>
+        <v>0.17056208413184881</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0232047093170871E-3</v>
+        <v>1.0443017136329033E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.783390588721995E-4</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8967038493188259E-5</v>
+        <v>4.9936682819786049E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.643647540983606E-5</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.5053488159458716E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,11 +15161,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5690121459739812E-2</v>
+        <v>2.645319437438555E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50406476126918587</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15173,23 +15173,23 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6680715942545747</v>
+        <v>1.6510504555376913</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.8022027037041426</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0486668319135517</v>
+        <v>1.8895470779785186</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8182816938222324</v>
+        <v>1.7143798827466759</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3291323357732265</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15197,19 +15197,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17056208413184881</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.107592726580352E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8017760587088198E-4</v>
+        <v>1.8201615286956443E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9451860656487143E-5</v>
+        <v>5.042150498308494E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.6163934426229502E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.5523909664441802E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,31 +15262,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4672690906878826E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51965439306101635</v>
+        <v>0.49886821733857567</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3213956556632589</v>
+        <v>1.2324555634551548</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6170081781039243</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.9160260323591412</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0884467703973102</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6797459457214905</v>
+        <v>1.7490138197718614</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15294,23 +15294,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15744192381401428</v>
+        <v>0.17220210417157811</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0548502157908114E-3</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.783390588721995E-4</v>
+        <v>1.9304743486165928E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7027749839992678E-5</v>
+        <v>4.6058105513394895E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256741E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26493,47 +26493,47 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.696735186859518</v>
+        <v>2.7237025387281131</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7789060410954924</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1573109332500042</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.7843480768689739</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-4</v>
+        <v>3.8346898601078906E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,43 +26558,43 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2684411166077112</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.094809981361895</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1098019869306546</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0325666590537699</v>
+        <v>1.9721933919531629</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>1.8117672914710823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>1.6176044151871922</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4696339308265798</v>
+        <v>1.4553656402360304</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676188156174111</v>
+        <v>1.0458306765231782</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26602,7 +26602,7 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0178496549148142</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26610,27 +26610,27 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4228579229384648</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.404248041800966</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5068087547205633</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>1.5390582291742918</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26642,15 +26642,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6458992359776536</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7283809051771026</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8073370329414054</v>
+        <v>1.7700723518498298</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.565108606557377E-5</v>
+        <v>3.5997213114754103E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8769818048825087E-5</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,19 +26687,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.1395567971712411E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68198356253672476</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.634221523236868</v>
+        <v>1.5533194676310824</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2673436246572951</v>
+        <v>2.0929325766067342</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26707,35 +26707,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.4001736989992573</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2119315973428124</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7050543893403818</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94076844202058307</v>
+        <v>0.93145390299067632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21038971517174487</v>
+        <v>0.20830664868489593</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697601313677372E-3</v>
+        <v>1.290735508404214E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278256916887629E-4</v>
+        <v>2.36848491359605E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9836751394349452E-5</v>
+        <v>5.9250116576757799E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.426657786885246E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9955280241382462E-5</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.29812027177585E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67542602828156395</v>
+        <v>0.62296575424027745</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6180411121157108</v>
+        <v>1.6665823454791822</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929325766067342</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3504796430298098</v>
+        <v>2.4464175876432721</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.6275585757465558</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1234543334491001</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.773945475778377</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94076844202058307</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21663891463229176</v>
+        <v>0.20205744922434904</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3039062788981345E-3</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.1654719210021029E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8076846941574467E-5</v>
+        <v>6.101002102953277E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.565108606557377E-5</v>
+        <v>3.3574323770491802E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>2.054801133766115E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,23 +26889,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0444187124084768E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68198356253672476</v>
+        <v>0.66231095977124232</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.634221523236868</v>
+        <v>1.5533194676310824</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929325766067342</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3264951568764447</v>
+        <v>2.3504796430298098</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26913,31 +26913,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3225281772099531</v>
+        <v>2.1234543334491001</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.7050543893403818</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.8941957468710493</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21038971517174487</v>
+        <v>0.21872198111914071</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3039062788981345E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3459279144189449E-4</v>
+        <v>2.1654719210021029E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0423386211941118E-5</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.696735186859518</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2529393613846489</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078906E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,11 +27321,11 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0124422366869013</v>
+        <v>2.0526910814206394</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27333,79 +27333,79 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.398292477873833</v>
+        <v>1.4981705120076785</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>1.0676188156174111</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537343525094177</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1142775169593757</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0491147035228112</v>
+        <v>0.95919058607799879</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96215095737072553</v>
+        <v>1.0634300055150128</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058458083989453</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4647066853778312</v>
+        <v>1.3670595730193091</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4182905222189757</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6178367682262893</v>
+        <v>1.5385310442936277</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>1.5692358415110428</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5745720770466822</v>
+        <v>1.6533006808990165</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6423312614887011</v>
+        <v>1.6769066564674107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794890163037282</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7119201346516064</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9377634167619193</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6343340163934429E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0152857273475358E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.076131407329398E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62296575424027745</v>
+        <v>0.68854109679188558</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6827627566003391</v>
+        <v>1.5856802898733964</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2455422436509753</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.398448615336541</v>
+        <v>2.4704020737966372</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.4507036716097681</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1234543334491001</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.96871205911030334</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21038971517174487</v>
+        <v>0.19997438273750009</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2775647379102933E-3</v>
+        <v>1.3434185903798963E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6903577306391142E-5</v>
+        <v>6.1596655847124437E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3920450819672128E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,7 +27543,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.171269492092163E-2</v>
+        <v>3.2346948819340068E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27551,47 +27551,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5533194676310824</v>
+        <v>1.5694998787522394</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1147339576130544</v>
+        <v>2.1801381006320146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3504796430298098</v>
+        <v>2.5183710461033684</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.4001736989992573</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2561702292896686</v>
+        <v>2.3004088612365248</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.7394999325593794</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90351028590095606</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20622358219804698</v>
+        <v>0.21247278165859385</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.290735508404214E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2105859193563131E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6903577306391142E-5</v>
+        <v>5.8076846941574467E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.426657786885246E-5</v>
+        <v>3.5997213114754103E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9955280241382462E-5</v>
+        <v>2.054801133766115E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.076131407329398E-2</v>
+        <v>3.2029821870130849E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27652,47 +27652,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5533194676310824</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.2673436246572951</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.398448615336541</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4759686579150233</v>
+        <v>2.5264986305255341</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1013350174756718</v>
+        <v>2.1898122813693846</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7911682473878758</v>
+        <v>1.6533860745118854</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90351028590095606</v>
+        <v>0.9128248249308627</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19997438273750009</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3434185903798963E-3</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278256916887629E-4</v>
+        <v>2.36848491359605E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0423386211941118E-5</v>
+        <v>6.101002102953277E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0601347045843319</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,43 +27926,43 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.4213726034196847</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8991665542656326</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5679474033676386</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.260982268123028E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,35 +27987,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0748594101108293</v>
+        <v>2.0349582676086979</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.1098019869306546</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.0325666590537699</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.7051927449139597</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.57002781474051</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.398292477873833</v>
+        <v>1.355487606102185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.267433453719947</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28023,55 +28023,55 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1204535538793383</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249917238532159</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0291315663128529</v>
+        <v>0.98916529189293634</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97227886218515425</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2934091816522886</v>
+        <v>1.2063527944256922</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4647066853778312</v>
+        <v>1.3391603980597313</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621206005469368</v>
+        <v>1.4323330026369852</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5843246476794182</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>1.7634634671189149</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28079,7 +28079,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
+        <v>1.8632340545787685</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3920450819672128E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,35 +28116,35 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2664075768549281E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65575342551608151</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6018607009945536</v>
+        <v>1.6989431677214966</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2673436246572951</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278526184569714</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2340509133162403</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.773945475778377</v>
+        <v>1.7911682473878758</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28152,19 +28152,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.19997438273750009</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2775647379102933E-3</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2105859193563131E-4</v>
+        <v>2.3008139160647341E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6316942488799482E-5</v>
+        <v>6.1596655847124437E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3920450819672128E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967395080917983E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.1395567971712411E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64263835700575989</v>
+        <v>0.62296575424027745</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6665823454791822</v>
+        <v>1.6018607009945536</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2673436246572951</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3264951568764447</v>
+        <v>2.3025106707230796</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4001736989992573</v>
+        <v>2.5012336442202789</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1898122813693846</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.687831617730883</v>
+        <v>1.7222771609498806</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95008298105048994</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.20205744922434904</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3170770493920552E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1654719210021029E-4</v>
+        <v>2.2105859193563131E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0423386211941118E-5</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9955280241382462E-5</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,19 +28318,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.171269492092163E-2</v>
+        <v>3.3298329666967719E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66886849402640314</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6504019343580252</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0711311956004139</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28338,27 +28338,27 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2782895452630969</v>
+        <v>2.1676929653959562</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.6361633029023865</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94076844202058307</v>
+        <v>0.9128248249308627</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.20830664868489593</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3434185903798963E-3</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6903577306391142E-5</v>
+        <v>5.6316942488799482E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D47BB6-6D42-41B1-9F42-9C22111FB5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F12B986-FA1C-4132-BAB6-91A67F7E1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="8550" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8902,12 +8902,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1.1046221254112047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>1.7908476965428546</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.48950409919347732</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.2728306565738845</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-0.97127229759901557</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.86618565965316541</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.66778448213040398</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.34731243756148006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.79647183537418409</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-0.95588484914699168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.48470503939746284</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.26022837284543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-0.99109418122348536</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.88350937284622877</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.67446232695170816</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.34731243756148006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.80435769513036415</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.96534905557418971</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.35384285127372345</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.29486904272810283</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.23589523418248226</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>1.0245654573645255</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.85380454780377124</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.68304363824301706</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.0964450306195932</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.7233821947013457</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3750818371205424</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1767057083737644</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.28153677348686579</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,25 +13577,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7243556650581424</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13603,39 +13603,39 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1530163697567657</v>
+        <v>2.0485010120015827</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6163347932989269</v>
+        <v>1.6988008541815254</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893556782282973</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420890697712679</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4014301830377334</v>
+        <v>1.3869824491919835</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.298674990584006</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.319619285282253</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13643,19 +13643,19 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8314350284434751</v>
+        <v>1.9061874785840249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8944655132660486</v>
+        <v>1.8749349409643368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583552497681597</v>
+        <v>2.1377994854846532</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13663,22 +13663,22 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2125808370973026</v>
+        <v>2.2347066454682754</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.1568850287215184</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2849821092278488</v>
+        <v>2.1531562183108575</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.5325362144333368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.8616803278688522E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5367102496114108E-5</v>
+        <v>1.5210295327786413E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.645319437438555E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49367167340796547</v>
+        <v>0.51445784913040615</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324555634551548</v>
+        <v>1.3086899282049582</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7872195652727587</v>
+        <v>1.7701984265558752</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8022027037041426</v>
+        <v>1.821173258479976</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8895470779785186</v>
+        <v>2.0486668319135517</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7316968512592688</v>
+        <v>1.7836477567970466</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4113467070581684</v>
+        <v>1.3017275453449124</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.78034168028997009</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16236198393320223</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0443017136329033E-3</v>
+        <v>1.0970442244224439E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.8385469986824691E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7512572003291577E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,11 +13813,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5181406183309316E-2</v>
+        <v>2.645319437438555E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54044056878345703</v>
+        <v>0.49886821733857567</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13825,43 +13825,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6680715942545747</v>
+        <v>1.685092732971458</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.859114368031642</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0685568011554309</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6451120086963051</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4113467070581684</v>
+        <v>1.3428347309873836</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16728204405239017</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0443017136329033E-3</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9120888786297677E-4</v>
+        <v>1.8937034086429432E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0906327146383832E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,39 +13914,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.4163975630448337E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53524402485284683</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2705727458300566</v>
+        <v>1.3086899282049582</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7872195652727587</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8401438132558088</v>
+        <v>1.8970554775833082</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9492169857041559</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7143798827466759</v>
+        <v>1.8182816938222324</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3839419166298546</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.76547802923682784</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,15 +13954,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0759472201066276E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8201615286956443E-4</v>
+        <v>1.9120888786297677E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6058105513394895E-5</v>
+        <v>4.7997394166590475E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0752688181890924</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8368564528139024</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3812947711194545</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>3.0304694897037203</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2837325356928293</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1767057083737644</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443797E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,108 +14251,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.058081112720024</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.8077543078660447</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6194038657725196</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7347889001077057</v>
+        <v>2.8168325671109375</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>2.344640024256694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>2.0485010120015827</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6632086249749547</v>
+        <v>1.6147656553154899</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5078840057359042</v>
+        <v>1.4063918130421413</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3122028550692564</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.266301334361758</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5949493190430239</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>2.0507100916797434</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.205121327278559</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9733533712166029</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1242800712080196</v>
+        <v>2.1453125471605743</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1462034119843834</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.2704052933910721</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2410401455888516</v>
+        <v>2.1970981819498543</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.5077074280173237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5053488159458716E-5</v>
+        <v>1.5210295327786413E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,19 +14386,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5181406183309316E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50406476126918587</v>
+        <v>0.49886821733857567</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2451612909134555</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7021138716883413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,27 +14406,27 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>1.9492169857041559</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.6451120086963051</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3976443118440116</v>
+        <v>1.3428347309873836</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73575072713054324</v>
+        <v>0.78034168028997009</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16892206409211949</v>
+        <v>0.17220210417157811</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0021077050012708E-3</v>
+        <v>1.0126562071591789E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7512572003291577E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5891393442622947E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.5053488159458716E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,19 +14487,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5944479097955057E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50406476126918587</v>
+        <v>0.49886821733857567</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2832784732883571</v>
+        <v>1.2451612909134555</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.6510504555376913</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,11 +14507,11 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0884467703973102</v>
+        <v>2.0088868934297937</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7663307882844539</v>
+        <v>1.7316968512592688</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14519,19 +14519,19 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78034168028997009</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15744192381401428</v>
+        <v>0.16892206409211949</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0443017136329033E-3</v>
+        <v>1.0864957222645358E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8569324686692939E-4</v>
+        <v>1.7650051187351705E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8344262295081967E-5</v>
+        <v>2.7254098360655734E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.5523909664441802E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.5944479097955057E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52485093699162655</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2070441085385537</v>
+        <v>1.2197498359968544</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7701984265558752</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.859114368031642</v>
+        <v>1.8780849228074752</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>2.0287768626716729</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6970629142340834</v>
+        <v>1.6624289772088978</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3428347309873836</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.76547802923682784</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16892206409211949</v>
+        <v>0.15744192381401428</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0970442244224439E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8201615286956443E-4</v>
+        <v>1.8753179386561187E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9451860656487143E-5</v>
+        <v>4.7997394166590475E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14866,15 +14866,15 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0752688181890924</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9503307109264587</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3198470857707898</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14882,31 +14882,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9150230329531022</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,37 +14925,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1804043572288254</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7243556650581424</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>2.8376875212535624</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6527452331044743</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>2.1739194413078025</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9104544622736355</v>
+        <v>1.8920847078286966</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14963,31 +14963,31 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5340273725497153</v>
+        <v>1.598617998762335</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4736688522664827</v>
+        <v>1.4592211184207329</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>1.7460497808471001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14995,38 +14995,38 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>2.0116489470763197</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0970271445688256</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0555764283506281</v>
+        <v>2.1377994854846532</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.1663450231131289</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>2.3010840705811946</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>2.3612215051267151</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2630111274083502</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.383563495937258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.5077074280173237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799180327868847E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.5994331169424887E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5435763821524564E-2</v>
+        <v>2.6198836736170301E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53004748092223664</v>
+        <v>0.50926130519979607</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3341013831215593</v>
+        <v>1.2451612909134555</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7361561491221082</v>
+        <v>1.6170081781039243</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8970554775833082</v>
+        <v>1.9539671419108076</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9492169857041559</v>
+        <v>2.0088868934297937</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6624289772088978</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4387514974864826</v>
+        <v>1.3702395214156975</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76547802923682784</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1607219638934729</v>
+        <v>0.15908194385374358</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0759472201066276E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9304743486165928E-4</v>
+        <v>1.8937034086429432E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9451860656487143E-5</v>
+        <v>4.6058105513394895E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6163934426229502E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5994331169424887E-5</v>
+        <v>1.5053488159458716E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.6198836736170301E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,19 +15169,19 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2451612909134555</v>
+        <v>1.2070441085385537</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6510504555376913</v>
+        <v>1.7872195652727587</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9349965871349744</v>
+        <v>1.9539671419108076</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0287768626716729</v>
+        <v>2.0486668319135517</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15189,19 +15189,19 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3976443118440116</v>
+        <v>1.3017275453449124</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74318255265711441</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15744192381401428</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0548502157908114E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9936682819786049E-5</v>
+        <v>5.0906327146383832E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5891393442622947E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51965439306101635</v>
+        <v>0.51445784913040615</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.3213956556632589</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7701984265558752</v>
+        <v>1.7872195652727587</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8780849228074752</v>
+        <v>1.821173258479976</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8895470779785186</v>
+        <v>1.9293270164622771</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7316968512592688</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3839419166298546</v>
+        <v>1.3154299405590695</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71345525055082981</v>
+        <v>0.72831890160397206</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.17220210417157811</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.0021077050012708E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8753179386561187E-4</v>
+        <v>1.783390588721995E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7997394166590475E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17004,9 +17004,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>5.1740713231847826</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>4.1585389136986253</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>2.8594946601526816</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.7585864248898231</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.6933427740960645</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.4995784866641992</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>2.1493320635898643</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.6285238244157809</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>5.2710982480145052</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>4.0807468867862964</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.8859381062095513</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.7745586637302282</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.6427031694311292</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.4995784866641992</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>2.109572673135053</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.6578670500871104</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>5.1255578607699199</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>4.1974349271547897</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.8066077680389427</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.7426141860494175</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.6680229717635964</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.5463428055804975</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>2.109572673135053</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.6138522115801162</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.77397684491899188</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>6.1367895856178037E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.62865994490314148</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.76668264467099734</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.1333629151411089</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.44271183619995935</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.55111038648232935</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-0.95246933587875793</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.78171661336818177</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>6.1981574814739815E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.64123314380120433</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.78201629756441726</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.1333629151411089</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.45156607292395856</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.55662149034715258</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-0.96199402923754551</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.75849730802061199</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>6.0754216897616259E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.6349465443521729</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.75901581822428732</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.13469654429252001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.43828471783795975</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.56213259421197592</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-0.97151872259633321</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.35384285127372345</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.29486904272810283</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.23589523418248226</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>0.17692142563686172</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>1.0245654573645255</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.85380454780377124</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.68304363824301706</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.51228272868226277</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.7110963114754101E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26489,51 +26489,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>2.7237025387281131</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>3.5245565960217573</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4213726034196847</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8991665542656326</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34370597033007827</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968907E-3</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2883846118679703E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,17 +26552,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3138099389398654</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0349582676086979</v>
+        <v>1.9950571251065665</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26570,90 +26570,90 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8117672914710823</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.5383100811093886</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4268290590549317</v>
+        <v>1.4125607684643824</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3442476024302468</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1495150522574702</v>
+        <v>1.1376643816156409</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894069547116441</v>
+        <v>1.0349366069760619</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315471534226982</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0928491031716954</v>
+        <v>1.0285638618086543</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0291315663128529</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99253467181401167</v>
+        <v>1.0634300055150128</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058458083989453</v>
+        <v>1.2187894211723487</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3670595730193091</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4323330026369852</v>
+        <v>1.3340356397109177</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5843246476794182</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5745720770466822</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6769066564674107</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6954593641261104</v>
+        <v>1.7283809051771026</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.8818663951245562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3228196721311469E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350434305568254E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,27 +26687,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.29812027177585E-2</v>
+        <v>3.0444187124084768E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68198356253672476</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.634221523236868</v>
+        <v>1.6504019343580252</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2455422436509753</v>
+        <v>2.1365353386193742</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4464175876432721</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26715,27 +26715,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6361633029023865</v>
+        <v>1.7911682473878758</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92213936396076956</v>
+        <v>0.95008298105048994</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20830664868489593</v>
+        <v>0.21872198111914071</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.290735508404214E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3459279144189449E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.9836751394349452E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967395080917983E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2346948819340068E-2</v>
+        <v>3.2029821870130849E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64263835700575989</v>
+        <v>0.63608082275059907</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.634221523236868</v>
+        <v>1.6504019343580252</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.2019394816383349</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,19 +26808,19 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1013350174756718</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.7222771609498806</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93145390299067632</v>
+        <v>0.92213936396076956</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26828,15 +26828,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290735508404214E-3</v>
+        <v>1.356589360873817E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2556999177105239E-4</v>
+        <v>2.2331429185334185E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7490212123982808E-5</v>
+        <v>6.0423386211941118E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882069672131143E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350434305568254E-5</v>
+        <v>2.0152857273475358E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,39 +26889,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3298329666967719E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6491958912609207</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6989431677214966</v>
+        <v>1.5694998787522394</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2237408626446551</v>
+        <v>2.1365353386193742</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4464175876432721</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5264986305255341</v>
+        <v>2.652823562051811</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2340509133162403</v>
+        <v>2.2561702292896686</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7394999325593794</v>
+        <v>1.7222771609498806</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8941957468710493</v>
+        <v>0.92213936396076956</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26929,15 +26929,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3302478198859758E-3</v>
+        <v>1.3829309018616579E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.36848491359605E-4</v>
+        <v>2.1429149218249975E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5730307671207816E-5</v>
+        <v>6.101002102953277E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.7110963114754101E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27252,31 +27252,31 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.126614429858372</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598995866800661</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35064952528624149</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27284,11 +27284,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2883846118679703E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,7 +27307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -27317,35 +27317,35 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.915254840102304</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1130643485212461</v>
+        <v>1.9721933919531629</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8650545647496437</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4553656402360304</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1258137109738111</v>
+        <v>1.1495150522574702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,31 +27353,31 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1093599543359784</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249917238532159</v>
+        <v>1.0392780687024945</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>0.98240676699958296</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2187894211723487</v>
+        <v>1.2560993014123187</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.4228579229384648</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.3621206005469368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27385,30 +27385,30 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5541470353426674</v>
+        <v>1.4787030045007901</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4958434731943482</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7466685769558774</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966947409731327</v>
+        <v>1.6131555114986291</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8818663951245562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.8632340545787685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8769818048825087E-5</v>
+        <v>1.9560126177196671E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62952328849543826</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5694998787522394</v>
+        <v>1.6018607009945536</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3504796430298098</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6275585757465558</v>
+        <v>2.6022935894412997</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1676929653959562</v>
+        <v>2.2340509133162403</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533860745118854</v>
+        <v>1.8083910189973746</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9780265981402102</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21663891463229176</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290735508404214E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1654719210021029E-4</v>
+        <v>2.3233709152418395E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5730307671207816E-5</v>
+        <v>5.9250116576757799E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882069672131143E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8769818048825087E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27547,27 +27547,27 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68198356253672476</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6989431677214966</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2019394816383349</v>
+        <v>2.1365353386193742</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3025106707230796</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.5517636168307893</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3004088612365248</v>
+        <v>2.1013350174756718</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27579,19 +27579,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20205744922434904</v>
+        <v>0.21247278165859385</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3170770493920552E-3</v>
+        <v>1.3697601313677372E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1654719210021029E-4</v>
+        <v>2.3459279144189449E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5730307671207816E-5</v>
+        <v>5.8076846941574467E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.426657786885246E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8769818048825087E-5</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27648,51 +27648,51 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67542602828156395</v>
+        <v>0.63608082275059907</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5694998787522394</v>
+        <v>1.6665823454791822</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2237408626446551</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5183710461033684</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5264986305255341</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2340509133162403</v>
+        <v>2.2119315973428124</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.773945475778377</v>
+        <v>1.7911682473878758</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93145390299067632</v>
+        <v>0.9128248249308627</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19997438273750009</v>
+        <v>0.20205744922434904</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.3697601313677372E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3008139160647341E-4</v>
+        <v>2.36848491359605E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1596655847124437E-5</v>
+        <v>5.8663481759166133E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,7 +27890,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,35 +27914,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.4882209610112236</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1972850768389467</v>
+        <v>3.8375177845384654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3792642929109258</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,37 +27981,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.223072294275557</v>
+        <v>2.2457567054416341</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>1.9551559826044351</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>2.0526910814206394</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.398292477873833</v>
+        <v>1.4125607684643824</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28019,70 +28019,70 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.1258137109738111</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.0982663547926188</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0391231349178323</v>
+        <v>0.98916529189293634</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>1.2560993014123187</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.5543921890801602</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5588263562762155</v>
+        <v>1.5430806355057487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.797920538892894</v>
+        <v>1.6769066564674107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6291043458146162</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>1.6625378230751178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.9563957573077071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5997213114754103E-5</v>
+        <v>3.2882069672131143E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>1.9955280241382462E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28120,51 +28120,51 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62296575424027745</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6827627566003391</v>
+        <v>1.6504019343580252</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2891450056636158</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4704020737966372</v>
+        <v>2.278526184569714</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5264986305255341</v>
+        <v>2.5012336442202789</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3225281772099531</v>
+        <v>2.2782895452630969</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.773945475778377</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93145390299067632</v>
+        <v>0.88488120784114244</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2643939674163731E-3</v>
+        <v>1.3829309018616579E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.9250116576757799E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5304959016393445E-5</v>
+        <v>3.3574323770491802E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>2.0350434305568254E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,23 +28217,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.076131407329398E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6491958912609207</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.537139056509925</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2455422436509753</v>
+        <v>2.2019394816383349</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4224331014899065</v>
+        <v>2.4464175876432721</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28241,19 +28241,19 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1234543334491001</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533860745118854</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.8941957468710493</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21247278165859385</v>
+        <v>0.20205744922434904</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28261,11 +28261,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2556999177105239E-4</v>
+        <v>2.1429149218249975E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.101002102953277E-5</v>
+        <v>5.7490212123982808E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3574323770491802E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.054801133766115E-5</v>
+        <v>2.0745588369754046E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.171269492092163E-2</v>
+        <v>3.3298329666967719E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28326,7 +28326,7 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5694998787522394</v>
+        <v>1.6989431677214966</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28334,7 +28334,7 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3504796430298098</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28342,31 +28342,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1898122813693846</v>
+        <v>2.1455736494225279</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6706088461213842</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9128248249308627</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21663891463229176</v>
+        <v>0.21038971517174487</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3008139160647341E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6316942488799482E-5</v>
+        <v>5.8076846941574467E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>1.6136254084929738</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-3.5092018783296544</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>5.0265094401247525</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>3.7960933588368166</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.5795278605992671</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.3815492283777888</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.4968892298190566</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.4519289914528573</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>2.1759873467439363</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.7110010668400362</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>5.073547283709015</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>3.8313649167443637</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.6268154167219375</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.4059529621283582</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.5202444967087541</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.4519289914528573</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>2.1759873467439363</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.7264974520999434</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>4.979471596540491</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>3.8313649167443637</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.5795278605992671</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.4059529621283582</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.4501786960396612</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.4519289914528573</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>2.1356948506260438</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.7264974520999434</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.47990597960144832</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.26022837284543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-0.99109418122348536</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.8661856596531653</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.66778448213040398</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.35082064400149504</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.78858597561800403</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.94642064271979387</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F12B986-FA1C-4132-BAB6-91A67F7E1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C375D934-27A1-4431-8C57-14EC6B5A682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83144702889762612</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13526,39 +13526,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.314994873646524</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7418533478271749</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28153677348686579</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.7405028560548391E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,19 +13583,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.0886619238472246</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9189524982765813</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8441804561120145</v>
+        <v>2.7621367891087827</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13603,79 +13603,79 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0485010120015827</v>
+        <v>2.1112102266546926</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8737149533837578</v>
+        <v>1.7634964267141249</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6988008541815254</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.420890697712679</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3869824491919835</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.298674990584006</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.319619285282253</v>
+        <v>1.3329487730123768</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6788940200452884</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9061874785840249</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>2.031179519378032</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1377994854846532</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.1873774990656836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>2.1683292203553566</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1531562183108575</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8616803278688522E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6707552012600791E-2</v>
+        <v>2.4672690906878826E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13720,11 +13720,11 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.2705727458300566</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7701984265558752</v>
+        <v>1.6340293168208075</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,35 +13732,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0486668319135517</v>
+        <v>1.8895470779785186</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7836477567970466</v>
+        <v>1.7316968512592688</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3839419166298546</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78034168028997009</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16400200397293155</v>
+        <v>0.16564202401266087</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0970442244224439E-3</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8385469986824691E-4</v>
+        <v>1.8753179386561187E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6542927676693786E-5</v>
+        <v>4.7997394166590475E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,27 +13813,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.645319437438555E-2</v>
+        <v>2.4163975630448337E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49886821733857567</v>
+        <v>0.54044056878345703</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.257867018371756</v>
+        <v>1.3341013831215593</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.685092732971458</v>
+        <v>1.7531772878389915</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.859114368031642</v>
+        <v>1.8970554775833082</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0287768626716729</v>
+        <v>1.9094370472203976</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13841,27 +13841,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3428347309873836</v>
+        <v>1.3976443118440116</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75804620371025666</v>
+        <v>0.73575072713054324</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16236198393320223</v>
+        <v>0.1607219638934729</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0759472201066276E-3</v>
+        <v>1.0653987179487195E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8937034086429432E-4</v>
+        <v>1.8569324686692939E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6542927676693786E-5</v>
+        <v>4.7027749839992678E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.8616803278688522E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.583752400109719E-5</v>
+        <v>1.5367102496114108E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4163975630448337E-2</v>
+        <v>2.5435763821524564E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54563711271406723</v>
+        <v>0.53004748092223664</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3086899282049582</v>
+        <v>1.3341013831215593</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6340293168208075</v>
+        <v>1.7701984265558752</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8970554775833082</v>
+        <v>1.821173258479976</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>1.9094370472203976</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8182816938222324</v>
+        <v>1.6624289772088978</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3565371262015407</v>
+        <v>1.3154299405590695</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76547802923682784</v>
+        <v>0.75804620371025666</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17220210417157811</v>
+        <v>0.16236198393320223</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0548502157908114E-3</v>
+        <v>1.0021077050012708E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9120888786297677E-4</v>
+        <v>1.8753179386561187E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7997394166590475E-5</v>
+        <v>4.6542927676693786E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081965E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14188,31 +14188,31 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8920733747547448</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6950136301732068</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.0036711728402379</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0304694897037203</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14220,19 +14220,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27060330655533704</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,11 +14257,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>2.9969194904656238</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14269,35 +14269,35 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>2.7347889001077057</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.344640024256694</v>
+        <v>2.4867394196661912</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0485010120015827</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.5833483689458874</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6147656553154899</v>
+        <v>1.6955039380812644</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483400615244678</v>
+        <v>1.4156251991080846</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4063918130421413</v>
+        <v>1.3918929283716039</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14305,31 +14305,31 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.3663143130102569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.9061874785840249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0507100916797434</v>
+        <v>1.9335266578694723</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537894714849321</v>
+        <v>2.269977836904399</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2704052933910721</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>2.3587347095212454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8344262295081967E-5</v>
+        <v>2.643647540983606E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5210295327786413E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,15 +14386,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4672690906878826E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49886821733857567</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2197498359968544</v>
+        <v>1.3341013831215593</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14402,11 +14402,11 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.821173258479976</v>
+        <v>1.9539671419108076</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9492169857041559</v>
+        <v>1.9889969241879144</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14414,23 +14414,23 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3428347309873836</v>
+        <v>1.3976443118440116</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78034168028997009</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17220210417157811</v>
+        <v>0.16892206409211949</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0126562071591789E-3</v>
+        <v>1.0337532114749952E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9304743486165928E-4</v>
+        <v>1.8569324686692939E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8344262295081967E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.4927048545094071E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14495,47 +14495,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2451612909134555</v>
+        <v>1.257867018371756</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6510504555376913</v>
+        <v>1.685092732971458</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.859114368031642</v>
+        <v>1.9729376966866403</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0088868934297937</v>
+        <v>1.9691069549460354</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7316968512592688</v>
+        <v>1.7663307882844539</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4387514974864826</v>
+        <v>1.4113467070581684</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75804620371025666</v>
+        <v>0.75061437818368559</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16892206409211949</v>
+        <v>0.16400200397293155</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0864957222645358E-3</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650051187351705E-4</v>
+        <v>1.8201615286956443E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7027749839992678E-5</v>
+        <v>4.848221632988936E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5523909664441802E-5</v>
+        <v>1.6307945506080278E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5944479097955057E-2</v>
+        <v>2.4418333268663578E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54563711271406723</v>
+        <v>0.52485093699162655</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,27 +14600,27 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7191350104052248</v>
+        <v>1.6510504555376913</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8780849228074752</v>
+        <v>1.9539671419108076</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0287768626716729</v>
+        <v>1.9691069549460354</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6624289772088978</v>
+        <v>1.8009647253096395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3428347309873836</v>
+        <v>1.3565371262015407</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76547802923682784</v>
+        <v>0.77290985476339902</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14628,15 +14628,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.0232047093170871E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8753179386561187E-4</v>
+        <v>1.7466196487483454E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7997394166590475E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098523946719403</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1823950787006625</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152205596220442</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.189092084251383</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443797E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14935,75 +14935,75 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9189524982765813</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>2.2735903265519459</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.7634964267141249</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6823076420050054</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598617998762335</v>
+        <v>1.6632086249749547</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893556782282973</v>
+        <v>1.5335939657004252</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4353895823832163</v>
+        <v>1.5078840057359042</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.3798421774955067</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7460497808471001</v>
+        <v>1.7292608406466472</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9435637036542999</v>
+        <v>1.9061874785840249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>1.9139960855677607</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1377994854846532</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15011,19 +15011,19 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3010840705811946</v>
+        <v>2.1904550287263294</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.3158133992588938</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1751272001303561</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>2.383563495937258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5994331169424887E-5</v>
+        <v>1.489668099113102E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6198836736170301E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50926130519979607</v>
+        <v>0.49367167340796547</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2451612909134555</v>
+        <v>1.3341013831215593</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6170081781039243</v>
+        <v>1.7021138716883413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9539671419108076</v>
+        <v>1.8970554775833082</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0088868934297937</v>
+        <v>2.0486668319135517</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.7836477567970466</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3702395214156975</v>
+        <v>1.4113467070581684</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.70602342502425863</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15908194385374358</v>
+        <v>0.1607219638934729</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.0548502157908114E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8937034086429432E-4</v>
+        <v>1.8017760587088198E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6058105513394895E-5</v>
+        <v>4.7512572003291577E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8344262295081967E-5</v>
+        <v>2.8071721311475409E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5053488159458716E-5</v>
+        <v>1.583752400109719E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6198836736170301E-2</v>
+        <v>2.5690121459739812E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51965439306101635</v>
+        <v>0.54563711271406723</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2070441085385537</v>
+        <v>1.2324555634551548</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7872195652727587</v>
+        <v>1.7701984265558752</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15185,23 +15185,23 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7663307882844539</v>
+        <v>1.8182816938222324</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3017275453449124</v>
+        <v>1.3702395214156975</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75804620371025666</v>
+        <v>0.72088707607740088</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15580190377428496</v>
+        <v>0.17220210417157811</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653987179487195E-3</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0906327146383832E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8071721311475409E-5</v>
+        <v>2.8344262295081967E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.6151138337752581E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,19 +15262,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4418333268663578E-2</v>
+        <v>2.6707552012600791E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51445784913040615</v>
+        <v>0.51965439306101635</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3213956556632589</v>
+        <v>1.2451612909134555</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7872195652727587</v>
+        <v>1.7191350104052248</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15282,27 +15282,27 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9293270164622771</v>
+        <v>1.8895470779785186</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8009647253096395</v>
+        <v>1.6797459457214905</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3154299405590695</v>
+        <v>1.4113467070581684</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72831890160397206</v>
+        <v>0.71345525055082981</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17220210417157811</v>
+        <v>0.15580190377428496</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0021077050012708E-3</v>
+        <v>1.0759472201066276E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6542927676693786E-5</v>
+        <v>4.9451860656487143E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>1.1147808233773386</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2529393613846489</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5022250291261199</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417573155673033</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4748020130685706</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36453663519856788</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-5</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,59 +26558,59 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1550190607773256</v>
+        <v>2.3818631724380968</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1515802440975982</v>
+        <v>2.068023729763711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5383100811093886</v>
+        <v>1.57002781474051</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4125607684643824</v>
+        <v>1.4839022214171291</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058405280750971</v>
+        <v>1.2802358118383304</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1376643816156409</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349366069760619</v>
+        <v>1.0567247460702947</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1648279520527773</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0391231349178323</v>
+        <v>1.0191399977078739</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26618,15 +26618,15 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.4182905222189757</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26634,23 +26634,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.7633451439141845</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>1.7634634671189149</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7283809051771026</v>
+        <v>1.5637731999221405</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8818663951245562</v>
+        <v>1.8073370329414054</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6343340163934429E-5</v>
+        <v>3.3228196721311469E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0152857273475358E-5</v>
+        <v>2.054801133766115E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,51 +26687,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0444187124084768E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65575342551608151</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6504019343580252</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1365353386193742</v>
+        <v>2.2455422436509753</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4943865599500028</v>
+        <v>2.398448615336541</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.6275585757465558</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7911682473878758</v>
+        <v>1.6706088461213842</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95008298105048994</v>
+        <v>0.8941957468710493</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21872198111914071</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290735508404214E-3</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2556999177105239E-4</v>
+        <v>2.3008139160647341E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6504019343580252</v>
+        <v>1.6180411121157108</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2019394816383349</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,35 +26808,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2561702292896686</v>
+        <v>2.1013350174756718</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7222771609498806</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92213936396076956</v>
+        <v>0.90351028590095606</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19997438273750009</v>
+        <v>0.19789131625065115</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356589360873817E-3</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2331429185334185E-4</v>
+        <v>2.3459279144189449E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0423386211941118E-5</v>
+        <v>5.5730307671207816E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.6343340163934429E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0152857273475358E-5</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.29812027177585E-2</v>
+        <v>3.171269492092163E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65575342551608151</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5694998787522394</v>
+        <v>1.634221523236868</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1365353386193742</v>
+        <v>2.2891450056636158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4943865599500028</v>
+        <v>2.3744641291831758</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.652823562051811</v>
+        <v>2.4759686579150233</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2561702292896686</v>
+        <v>2.3004088612365248</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7222771609498806</v>
+        <v>1.8083910189973746</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92213936396076956</v>
+        <v>0.8941957468710493</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20830664868489593</v>
+        <v>0.21872198111914071</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3829309018616579E-3</v>
+        <v>1.2512231969224524E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.3008139160647341E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.101002102953277E-5</v>
+        <v>5.8076846941574467E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-5</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,47 +27240,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915477E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0710639283429331</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6428004831223273</v>
+        <v>2.6158331312537326</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.5608922310322906</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2529393613846489</v>
+        <v>4.3792642929109258</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8708802953499215</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7556434575198092</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36453663519856788</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27317,23 +27317,23 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0150076963576322</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.0889128583471828</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9721933919531629</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.8650545647496437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27341,55 +27341,55 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1495150522574702</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894069547116441</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0392780687024945</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0391231349178323</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2560993014123187</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4228579229384648</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621206005469368</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6178367682262893</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4787030045007901</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27397,11 +27397,11 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7466685769558774</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>1.5637731999221405</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3228196721311469E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,15 +27442,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.171269492092163E-2</v>
+        <v>3.29812027177585E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64263835700575989</v>
+        <v>0.6491958912609207</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6018607009945536</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,31 +27462,31 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6022935894412997</v>
+        <v>2.5770286031360445</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2340509133162403</v>
+        <v>2.3225281772099531</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8083910189973746</v>
+        <v>1.687831617730883</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.96871205911030334</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.19789131625065115</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2775647379102933E-3</v>
+        <v>1.356589360873817E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3233709152418395E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6343340163934429E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,35 +27543,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2029821870130849E-2</v>
+        <v>3.2346948819340068E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64263835700575989</v>
+        <v>0.66886849402640314</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.537139056509925</v>
+        <v>1.5694998787522394</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1365353386193742</v>
+        <v>2.0711311956004139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.398448615336541</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5517636168307893</v>
+        <v>2.5012336442202789</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1013350174756718</v>
+        <v>2.2782895452630969</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6361633029023865</v>
+        <v>1.7050543893403818</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27579,19 +27579,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21247278165859385</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697601313677372E-3</v>
+        <v>1.2775647379102933E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3459279144189449E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8076846941574467E-5</v>
+        <v>5.6316942488799482E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4958831967213112E-5</v>
+        <v>3.4612704918032786E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9164972113010879E-5</v>
+        <v>2.0350434305568254E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,31 +27644,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0127060174875549E-2</v>
+        <v>3.1395567971712411E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.65575342551608151</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6665823454791822</v>
+        <v>1.5856802898733964</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583367196256944</v>
+        <v>2.0929325766067342</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4943865599500028</v>
+        <v>2.4704020737966372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4254386853045125</v>
+        <v>2.4507036716097681</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2119315973428124</v>
+        <v>2.1676929653959562</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27680,19 +27680,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20205744922434904</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697601313677372E-3</v>
+        <v>1.3170770493920552E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.36848491359605E-4</v>
+        <v>2.2331429185334185E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.9250116576757799E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551915E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,15 +27926,15 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4882209610112236</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27942,27 +27942,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9278711736147973</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34023419285199669</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.260982268123028E-3</v>
+        <v>2.1292745631838225E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.8346898601078906E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>9.7772469598610213E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27995,27 +27995,27 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>2.0889128583471828</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0526910814206394</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>1.5383100811093886</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4125607684643824</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28031,55 +28031,55 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0821348962778552</v>
+        <v>1.1142775169593757</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98916529189293634</v>
+        <v>0.95919058607799879</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99253467181401167</v>
+        <v>0.96215095737072553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2560993014123187</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4647066853778312</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.404248041800966</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5543921890801602</v>
+        <v>1.6178367682262893</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6769066564674107</v>
+        <v>1.728769748935475</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7130787966298029</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882069672131143E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9955280241382462E-5</v>
+        <v>1.9164972113010879E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,15 +28116,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0444187124084768E-2</v>
+        <v>3.2664075768549281E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6491958912609207</v>
+        <v>0.67542602828156395</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6504019343580252</v>
+        <v>1.5694998787522394</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28132,39 +28132,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.278526184569714</v>
+        <v>2.5183710461033684</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5012336442202789</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2782895452630969</v>
+        <v>2.3004088612365248</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.773945475778377</v>
+        <v>1.7222771609498806</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88488120784114244</v>
+        <v>0.9780265981402102</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21455584814544282</v>
+        <v>0.20830664868489593</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3829309018616579E-3</v>
+        <v>1.2643939674163731E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2556999177105239E-4</v>
+        <v>2.278256916887629E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9250116576757799E-5</v>
+        <v>6.101002102953277E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3574323770491802E-5</v>
+        <v>3.3920450819672128E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350434305568254E-5</v>
+        <v>1.9757703209289567E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,27 +28217,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2664075768549281E-2</v>
+        <v>3.3298329666967719E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65575342551608151</v>
+        <v>0.62952328849543826</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.634221523236868</v>
+        <v>1.537139056509925</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2019394816383349</v>
+        <v>2.1583367196256944</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4464175876432721</v>
+        <v>2.4943865599500028</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.4254386853045125</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28245,27 +28245,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.687831617730883</v>
+        <v>1.7567227041688782</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8941957468710493</v>
+        <v>0.95939752008039658</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20205744922434904</v>
+        <v>0.21455584814544282</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3829309018616579E-3</v>
+        <v>1.290735508404214E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1429149218249975E-4</v>
+        <v>2.2556999177105239E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7490212123982808E-5</v>
+        <v>5.5730307671207816E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6343340163934429E-5</v>
+        <v>3.4958831967213112E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0745588369754046E-5</v>
+        <v>2.0350434305568254E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3298329666967719E-2</v>
+        <v>3.0444187124084768E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63608082275059907</v>
+        <v>0.64263835700575989</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6989431677214966</v>
+        <v>1.6827627566003391</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1365353386193742</v>
+        <v>2.2237408626446551</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4943865599500028</v>
+        <v>2.3264951568764447</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5770286031360445</v>
+        <v>2.4507036716097681</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1455736494225279</v>
+        <v>2.1898122813693846</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7567227041688782</v>
+        <v>1.6533860745118854</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9780265981402102</v>
+        <v>0.93145390299067632</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21038971517174487</v>
+        <v>0.20622358219804698</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3170770493920552E-3</v>
+        <v>1.3829309018616579E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2556999177105239E-4</v>
+        <v>2.188028920179208E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8076846941574467E-5</v>
+        <v>5.7490212123982808E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
